--- a/third_party/Excel_Handle/AVL_Cmp_Same_List_Example.xlsx
+++ b/third_party/Excel_Handle/AVL_Cmp_Same_List_Example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CNMALAO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abb-my.sharepoint.com/personal/mackey-jinhuan_lao_cn_abb_com/Documents/00_WorkPlace/01_Design_Work/01_Prg/10_Py/PythonCode/A1_Flask/Flask_CONNECT_DB/third_party/Excel_Handle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAC8FC7-9078-4B7B-AE10-9F02F9836504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{DAAC8FC7-9078-4B7B-AE10-9F02F9836504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C61A99C7-BA84-47C4-9416-09A4C13A1DBF}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-4905" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVL" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="265">
   <si>
     <t xml:space="preserve">ABB </t>
   </si>
@@ -819,13 +819,16 @@
   </si>
   <si>
     <t>RC0201FR-07100RL</t>
+  </si>
+  <si>
+    <t>CC0805KRX7R7BB47*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +901,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1025,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,6 +1117,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1413,10 +1430,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T1508"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1444,11 +1461,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="22" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1464,9 +1481,9 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="16"/>
@@ -1493,16 +1510,16 @@
       <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
@@ -1515,16 +1532,16 @@
       <c r="R4" s="27"/>
     </row>
     <row r="5" spans="1:20" s="22" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
@@ -2179,12 +2196,8 @@
       <c r="F41" t="s">
         <v>131</v>
       </c>
-      <c r="G41" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" t="s">
-        <v>132</v>
-      </c>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
@@ -2365,1450 +2378,6 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
-    <row r="82" customFormat="1"/>
-    <row r="83" customFormat="1"/>
-    <row r="84" customFormat="1"/>
-    <row r="85" customFormat="1"/>
-    <row r="86" customFormat="1"/>
-    <row r="87" customFormat="1"/>
-    <row r="88" customFormat="1"/>
-    <row r="89" customFormat="1"/>
-    <row r="90" customFormat="1"/>
-    <row r="91" customFormat="1"/>
-    <row r="92" customFormat="1"/>
-    <row r="93" customFormat="1"/>
-    <row r="94" customFormat="1"/>
-    <row r="95" customFormat="1"/>
-    <row r="96" customFormat="1"/>
-    <row r="97" customFormat="1"/>
-    <row r="98" customFormat="1"/>
-    <row r="99" customFormat="1"/>
-    <row r="100" customFormat="1"/>
-    <row r="101" customFormat="1"/>
-    <row r="102" customFormat="1"/>
-    <row r="103" customFormat="1"/>
-    <row r="104" customFormat="1"/>
-    <row r="105" customFormat="1"/>
-    <row r="106" customFormat="1"/>
-    <row r="107" customFormat="1"/>
-    <row r="108" customFormat="1"/>
-    <row r="109" customFormat="1"/>
-    <row r="110" customFormat="1"/>
-    <row r="111" customFormat="1"/>
-    <row r="112" customFormat="1"/>
-    <row r="113" customFormat="1"/>
-    <row r="114" customFormat="1"/>
-    <row r="115" customFormat="1"/>
-    <row r="116" customFormat="1"/>
-    <row r="117" customFormat="1"/>
-    <row r="118" customFormat="1"/>
-    <row r="119" customFormat="1"/>
-    <row r="120" customFormat="1"/>
-    <row r="121" customFormat="1"/>
-    <row r="122" customFormat="1"/>
-    <row r="123" customFormat="1"/>
-    <row r="124" customFormat="1"/>
-    <row r="125" customFormat="1"/>
-    <row r="126" customFormat="1"/>
-    <row r="127" customFormat="1"/>
-    <row r="128" customFormat="1"/>
-    <row r="129" customFormat="1"/>
-    <row r="130" customFormat="1"/>
-    <row r="131" customFormat="1"/>
-    <row r="132" customFormat="1"/>
-    <row r="133" customFormat="1"/>
-    <row r="134" customFormat="1"/>
-    <row r="135" customFormat="1"/>
-    <row r="136" customFormat="1"/>
-    <row r="137" customFormat="1"/>
-    <row r="138" customFormat="1"/>
-    <row r="139" customFormat="1"/>
-    <row r="140" customFormat="1"/>
-    <row r="141" customFormat="1"/>
-    <row r="142" customFormat="1"/>
-    <row r="143" customFormat="1"/>
-    <row r="144" customFormat="1"/>
-    <row r="145" customFormat="1"/>
-    <row r="146" customFormat="1"/>
-    <row r="147" customFormat="1"/>
-    <row r="148" customFormat="1"/>
-    <row r="149" customFormat="1"/>
-    <row r="150" customFormat="1"/>
-    <row r="151" customFormat="1"/>
-    <row r="152" customFormat="1"/>
-    <row r="153" customFormat="1"/>
-    <row r="154" customFormat="1"/>
-    <row r="155" customFormat="1"/>
-    <row r="156" customFormat="1"/>
-    <row r="157" customFormat="1"/>
-    <row r="158" customFormat="1"/>
-    <row r="159" customFormat="1"/>
-    <row r="160" customFormat="1"/>
-    <row r="161" customFormat="1"/>
-    <row r="162" customFormat="1"/>
-    <row r="163" customFormat="1"/>
-    <row r="164" customFormat="1"/>
-    <row r="165" customFormat="1"/>
-    <row r="166" customFormat="1"/>
-    <row r="167" customFormat="1"/>
-    <row r="168" customFormat="1"/>
-    <row r="169" customFormat="1"/>
-    <row r="170" customFormat="1"/>
-    <row r="171" customFormat="1"/>
-    <row r="172" customFormat="1"/>
-    <row r="173" customFormat="1"/>
-    <row r="174" customFormat="1"/>
-    <row r="175" customFormat="1"/>
-    <row r="176" customFormat="1"/>
-    <row r="177" customFormat="1"/>
-    <row r="178" customFormat="1"/>
-    <row r="179" customFormat="1"/>
-    <row r="180" customFormat="1"/>
-    <row r="181" customFormat="1"/>
-    <row r="182" customFormat="1"/>
-    <row r="183" customFormat="1"/>
-    <row r="184" customFormat="1"/>
-    <row r="185" customFormat="1"/>
-    <row r="186" customFormat="1"/>
-    <row r="187" customFormat="1"/>
-    <row r="188" customFormat="1"/>
-    <row r="189" customFormat="1"/>
-    <row r="190" customFormat="1"/>
-    <row r="191" customFormat="1"/>
-    <row r="192" customFormat="1"/>
-    <row r="193" customFormat="1"/>
-    <row r="194" customFormat="1"/>
-    <row r="195" customFormat="1"/>
-    <row r="196" customFormat="1"/>
-    <row r="197" customFormat="1"/>
-    <row r="198" customFormat="1"/>
-    <row r="199" customFormat="1"/>
-    <row r="200" customFormat="1"/>
-    <row r="201" customFormat="1"/>
-    <row r="202" customFormat="1"/>
-    <row r="203" customFormat="1"/>
-    <row r="204" customFormat="1"/>
-    <row r="205" customFormat="1"/>
-    <row r="206" customFormat="1"/>
-    <row r="207" customFormat="1"/>
-    <row r="208" customFormat="1"/>
-    <row r="209" customFormat="1"/>
-    <row r="210" customFormat="1"/>
-    <row r="211" customFormat="1"/>
-    <row r="212" customFormat="1"/>
-    <row r="213" customFormat="1"/>
-    <row r="214" customFormat="1"/>
-    <row r="215" customFormat="1"/>
-    <row r="216" customFormat="1"/>
-    <row r="217" customFormat="1"/>
-    <row r="218" customFormat="1"/>
-    <row r="219" customFormat="1"/>
-    <row r="220" customFormat="1"/>
-    <row r="221" customFormat="1"/>
-    <row r="222" customFormat="1"/>
-    <row r="223" customFormat="1"/>
-    <row r="224" customFormat="1"/>
-    <row r="225" customFormat="1"/>
-    <row r="226" customFormat="1"/>
-    <row r="227" customFormat="1"/>
-    <row r="228" customFormat="1"/>
-    <row r="229" customFormat="1"/>
-    <row r="230" customFormat="1"/>
-    <row r="231" customFormat="1"/>
-    <row r="232" customFormat="1"/>
-    <row r="233" customFormat="1"/>
-    <row r="234" customFormat="1"/>
-    <row r="235" customFormat="1"/>
-    <row r="236" customFormat="1"/>
-    <row r="237" customFormat="1"/>
-    <row r="238" customFormat="1"/>
-    <row r="239" customFormat="1"/>
-    <row r="240" customFormat="1"/>
-    <row r="241" customFormat="1"/>
-    <row r="242" customFormat="1"/>
-    <row r="243" customFormat="1"/>
-    <row r="244" customFormat="1"/>
-    <row r="245" customFormat="1"/>
-    <row r="246" customFormat="1"/>
-    <row r="247" customFormat="1"/>
-    <row r="248" customFormat="1"/>
-    <row r="249" customFormat="1"/>
-    <row r="250" customFormat="1"/>
-    <row r="251" customFormat="1"/>
-    <row r="252" customFormat="1"/>
-    <row r="253" customFormat="1"/>
-    <row r="254" customFormat="1"/>
-    <row r="255" customFormat="1"/>
-    <row r="256" customFormat="1"/>
-    <row r="257" customFormat="1"/>
-    <row r="258" customFormat="1"/>
-    <row r="259" customFormat="1"/>
-    <row r="260" customFormat="1"/>
-    <row r="261" customFormat="1"/>
-    <row r="262" customFormat="1"/>
-    <row r="263" customFormat="1"/>
-    <row r="264" customFormat="1"/>
-    <row r="265" customFormat="1"/>
-    <row r="266" customFormat="1"/>
-    <row r="267" customFormat="1"/>
-    <row r="268" customFormat="1"/>
-    <row r="269" customFormat="1"/>
-    <row r="270" customFormat="1"/>
-    <row r="271" customFormat="1"/>
-    <row r="272" customFormat="1"/>
-    <row r="273" customFormat="1"/>
-    <row r="274" customFormat="1"/>
-    <row r="275" customFormat="1"/>
-    <row r="276" customFormat="1"/>
-    <row r="277" customFormat="1"/>
-    <row r="278" customFormat="1"/>
-    <row r="279" customFormat="1"/>
-    <row r="280" customFormat="1"/>
-    <row r="281" customFormat="1"/>
-    <row r="282" customFormat="1"/>
-    <row r="283" customFormat="1"/>
-    <row r="284" customFormat="1"/>
-    <row r="285" customFormat="1"/>
-    <row r="286" customFormat="1"/>
-    <row r="287" customFormat="1"/>
-    <row r="288" customFormat="1"/>
-    <row r="289" customFormat="1"/>
-    <row r="290" customFormat="1"/>
-    <row r="291" customFormat="1"/>
-    <row r="292" customFormat="1"/>
-    <row r="293" customFormat="1"/>
-    <row r="294" customFormat="1"/>
-    <row r="295" customFormat="1"/>
-    <row r="296" customFormat="1"/>
-    <row r="297" customFormat="1"/>
-    <row r="298" customFormat="1"/>
-    <row r="299" customFormat="1"/>
-    <row r="300" customFormat="1"/>
-    <row r="301" customFormat="1"/>
-    <row r="302" customFormat="1"/>
-    <row r="303" customFormat="1"/>
-    <row r="304" customFormat="1"/>
-    <row r="305" customFormat="1"/>
-    <row r="306" customFormat="1"/>
-    <row r="307" customFormat="1"/>
-    <row r="308" customFormat="1"/>
-    <row r="309" customFormat="1"/>
-    <row r="310" customFormat="1"/>
-    <row r="311" customFormat="1"/>
-    <row r="312" customFormat="1"/>
-    <row r="313" customFormat="1"/>
-    <row r="314" customFormat="1"/>
-    <row r="315" customFormat="1"/>
-    <row r="316" customFormat="1"/>
-    <row r="317" customFormat="1"/>
-    <row r="318" customFormat="1"/>
-    <row r="319" customFormat="1"/>
-    <row r="320" customFormat="1"/>
-    <row r="321" customFormat="1"/>
-    <row r="322" customFormat="1"/>
-    <row r="323" customFormat="1"/>
-    <row r="324" customFormat="1"/>
-    <row r="325" customFormat="1"/>
-    <row r="326" customFormat="1"/>
-    <row r="327" customFormat="1"/>
-    <row r="328" customFormat="1"/>
-    <row r="329" customFormat="1"/>
-    <row r="330" customFormat="1"/>
-    <row r="331" customFormat="1"/>
-    <row r="332" customFormat="1"/>
-    <row r="333" customFormat="1"/>
-    <row r="334" customFormat="1"/>
-    <row r="335" customFormat="1"/>
-    <row r="336" customFormat="1"/>
-    <row r="337" customFormat="1"/>
-    <row r="338" customFormat="1"/>
-    <row r="339" customFormat="1"/>
-    <row r="340" customFormat="1"/>
-    <row r="341" customFormat="1"/>
-    <row r="342" customFormat="1"/>
-    <row r="343" customFormat="1"/>
-    <row r="344" customFormat="1"/>
-    <row r="345" customFormat="1"/>
-    <row r="346" customFormat="1"/>
-    <row r="347" customFormat="1"/>
-    <row r="348" customFormat="1"/>
-    <row r="349" customFormat="1"/>
-    <row r="350" customFormat="1"/>
-    <row r="351" customFormat="1"/>
-    <row r="352" customFormat="1"/>
-    <row r="353" customFormat="1"/>
-    <row r="354" customFormat="1"/>
-    <row r="355" customFormat="1"/>
-    <row r="356" customFormat="1"/>
-    <row r="357" customFormat="1"/>
-    <row r="358" customFormat="1"/>
-    <row r="359" customFormat="1"/>
-    <row r="360" customFormat="1"/>
-    <row r="361" customFormat="1"/>
-    <row r="362" customFormat="1"/>
-    <row r="363" customFormat="1"/>
-    <row r="364" customFormat="1"/>
-    <row r="365" customFormat="1"/>
-    <row r="366" customFormat="1"/>
-    <row r="367" customFormat="1"/>
-    <row r="368" customFormat="1"/>
-    <row r="369" customFormat="1"/>
-    <row r="370" customFormat="1"/>
-    <row r="371" customFormat="1"/>
-    <row r="372" customFormat="1"/>
-    <row r="373" customFormat="1"/>
-    <row r="374" customFormat="1"/>
-    <row r="375" customFormat="1"/>
-    <row r="376" customFormat="1"/>
-    <row r="377" customFormat="1"/>
-    <row r="378" customFormat="1"/>
-    <row r="379" customFormat="1"/>
-    <row r="380" customFormat="1"/>
-    <row r="381" customFormat="1"/>
-    <row r="382" customFormat="1"/>
-    <row r="383" customFormat="1"/>
-    <row r="384" customFormat="1"/>
-    <row r="385" customFormat="1"/>
-    <row r="386" customFormat="1"/>
-    <row r="387" customFormat="1"/>
-    <row r="388" customFormat="1"/>
-    <row r="389" customFormat="1"/>
-    <row r="390" customFormat="1"/>
-    <row r="391" customFormat="1"/>
-    <row r="392" customFormat="1"/>
-    <row r="393" customFormat="1"/>
-    <row r="394" customFormat="1"/>
-    <row r="395" customFormat="1"/>
-    <row r="396" customFormat="1"/>
-    <row r="397" customFormat="1"/>
-    <row r="398" customFormat="1"/>
-    <row r="399" customFormat="1"/>
-    <row r="400" customFormat="1"/>
-    <row r="401" customFormat="1"/>
-    <row r="402" customFormat="1"/>
-    <row r="403" customFormat="1"/>
-    <row r="404" customFormat="1"/>
-    <row r="405" customFormat="1"/>
-    <row r="406" customFormat="1"/>
-    <row r="407" customFormat="1"/>
-    <row r="408" customFormat="1"/>
-    <row r="409" customFormat="1"/>
-    <row r="410" customFormat="1"/>
-    <row r="411" customFormat="1"/>
-    <row r="412" customFormat="1"/>
-    <row r="413" customFormat="1"/>
-    <row r="414" customFormat="1"/>
-    <row r="415" customFormat="1"/>
-    <row r="416" customFormat="1"/>
-    <row r="417" customFormat="1"/>
-    <row r="418" customFormat="1"/>
-    <row r="419" customFormat="1"/>
-    <row r="420" customFormat="1"/>
-    <row r="421" customFormat="1"/>
-    <row r="422" customFormat="1"/>
-    <row r="423" customFormat="1"/>
-    <row r="424" customFormat="1"/>
-    <row r="425" customFormat="1"/>
-    <row r="426" customFormat="1"/>
-    <row r="427" customFormat="1"/>
-    <row r="428" customFormat="1"/>
-    <row r="429" customFormat="1"/>
-    <row r="430" customFormat="1"/>
-    <row r="431" customFormat="1"/>
-    <row r="432" customFormat="1"/>
-    <row r="433" customFormat="1"/>
-    <row r="434" customFormat="1"/>
-    <row r="435" customFormat="1"/>
-    <row r="436" customFormat="1"/>
-    <row r="437" customFormat="1"/>
-    <row r="438" customFormat="1"/>
-    <row r="439" customFormat="1"/>
-    <row r="440" customFormat="1"/>
-    <row r="441" customFormat="1"/>
-    <row r="442" customFormat="1"/>
-    <row r="443" customFormat="1"/>
-    <row r="444" customFormat="1"/>
-    <row r="445" customFormat="1"/>
-    <row r="446" customFormat="1"/>
-    <row r="447" customFormat="1"/>
-    <row r="448" customFormat="1"/>
-    <row r="449" customFormat="1"/>
-    <row r="450" customFormat="1"/>
-    <row r="451" customFormat="1"/>
-    <row r="452" customFormat="1"/>
-    <row r="453" customFormat="1"/>
-    <row r="454" customFormat="1"/>
-    <row r="455" customFormat="1"/>
-    <row r="456" customFormat="1"/>
-    <row r="457" customFormat="1"/>
-    <row r="458" customFormat="1"/>
-    <row r="459" customFormat="1"/>
-    <row r="460" customFormat="1"/>
-    <row r="461" customFormat="1"/>
-    <row r="462" customFormat="1"/>
-    <row r="463" customFormat="1"/>
-    <row r="464" customFormat="1"/>
-    <row r="465" customFormat="1"/>
-    <row r="466" customFormat="1"/>
-    <row r="467" customFormat="1"/>
-    <row r="468" customFormat="1"/>
-    <row r="469" customFormat="1"/>
-    <row r="470" customFormat="1"/>
-    <row r="471" customFormat="1"/>
-    <row r="472" customFormat="1"/>
-    <row r="473" customFormat="1"/>
-    <row r="474" customFormat="1"/>
-    <row r="475" customFormat="1"/>
-    <row r="476" customFormat="1"/>
-    <row r="477" customFormat="1"/>
-    <row r="478" customFormat="1"/>
-    <row r="479" customFormat="1"/>
-    <row r="480" customFormat="1"/>
-    <row r="481" customFormat="1"/>
-    <row r="482" customFormat="1"/>
-    <row r="483" customFormat="1"/>
-    <row r="484" customFormat="1"/>
-    <row r="485" customFormat="1"/>
-    <row r="486" customFormat="1"/>
-    <row r="487" customFormat="1"/>
-    <row r="488" customFormat="1"/>
-    <row r="489" customFormat="1"/>
-    <row r="490" customFormat="1"/>
-    <row r="491" customFormat="1"/>
-    <row r="492" customFormat="1"/>
-    <row r="493" customFormat="1"/>
-    <row r="494" customFormat="1"/>
-    <row r="495" customFormat="1"/>
-    <row r="496" customFormat="1"/>
-    <row r="497" customFormat="1"/>
-    <row r="498" customFormat="1"/>
-    <row r="499" customFormat="1"/>
-    <row r="500" customFormat="1"/>
-    <row r="501" customFormat="1"/>
-    <row r="502" customFormat="1"/>
-    <row r="503" customFormat="1"/>
-    <row r="504" customFormat="1"/>
-    <row r="505" customFormat="1"/>
-    <row r="506" customFormat="1"/>
-    <row r="507" customFormat="1"/>
-    <row r="508" customFormat="1"/>
-    <row r="509" customFormat="1"/>
-    <row r="510" customFormat="1"/>
-    <row r="511" customFormat="1"/>
-    <row r="512" customFormat="1"/>
-    <row r="513" customFormat="1"/>
-    <row r="514" customFormat="1"/>
-    <row r="515" customFormat="1"/>
-    <row r="516" customFormat="1"/>
-    <row r="517" customFormat="1"/>
-    <row r="518" customFormat="1"/>
-    <row r="519" customFormat="1"/>
-    <row r="520" customFormat="1"/>
-    <row r="521" customFormat="1"/>
-    <row r="522" customFormat="1"/>
-    <row r="523" customFormat="1"/>
-    <row r="524" customFormat="1"/>
-    <row r="525" customFormat="1"/>
-    <row r="526" customFormat="1"/>
-    <row r="527" customFormat="1"/>
-    <row r="528" customFormat="1"/>
-    <row r="529" customFormat="1"/>
-    <row r="530" customFormat="1"/>
-    <row r="531" customFormat="1"/>
-    <row r="532" customFormat="1"/>
-    <row r="533" customFormat="1"/>
-    <row r="534" customFormat="1"/>
-    <row r="535" customFormat="1"/>
-    <row r="536" customFormat="1"/>
-    <row r="537" customFormat="1"/>
-    <row r="538" customFormat="1"/>
-    <row r="539" customFormat="1"/>
-    <row r="540" customFormat="1"/>
-    <row r="541" customFormat="1"/>
-    <row r="542" customFormat="1"/>
-    <row r="543" customFormat="1"/>
-    <row r="544" customFormat="1"/>
-    <row r="545" customFormat="1"/>
-    <row r="546" customFormat="1"/>
-    <row r="547" customFormat="1"/>
-    <row r="548" customFormat="1"/>
-    <row r="549" customFormat="1"/>
-    <row r="550" customFormat="1"/>
-    <row r="551" customFormat="1"/>
-    <row r="552" customFormat="1"/>
-    <row r="553" customFormat="1"/>
-    <row r="554" customFormat="1"/>
-    <row r="555" customFormat="1"/>
-    <row r="556" customFormat="1"/>
-    <row r="557" customFormat="1"/>
-    <row r="558" customFormat="1"/>
-    <row r="559" customFormat="1"/>
-    <row r="560" customFormat="1"/>
-    <row r="561" customFormat="1"/>
-    <row r="562" customFormat="1"/>
-    <row r="563" customFormat="1"/>
-    <row r="564" customFormat="1"/>
-    <row r="565" customFormat="1"/>
-    <row r="566" customFormat="1"/>
-    <row r="567" customFormat="1"/>
-    <row r="568" customFormat="1"/>
-    <row r="569" customFormat="1"/>
-    <row r="570" customFormat="1"/>
-    <row r="571" customFormat="1"/>
-    <row r="572" customFormat="1"/>
-    <row r="573" customFormat="1"/>
-    <row r="574" customFormat="1"/>
-    <row r="575" customFormat="1"/>
-    <row r="576" customFormat="1"/>
-    <row r="577" customFormat="1"/>
-    <row r="578" customFormat="1"/>
-    <row r="579" customFormat="1"/>
-    <row r="580" customFormat="1"/>
-    <row r="581" customFormat="1"/>
-    <row r="582" customFormat="1"/>
-    <row r="583" customFormat="1"/>
-    <row r="584" customFormat="1"/>
-    <row r="585" customFormat="1"/>
-    <row r="586" customFormat="1"/>
-    <row r="587" customFormat="1"/>
-    <row r="588" customFormat="1"/>
-    <row r="589" customFormat="1"/>
-    <row r="590" customFormat="1"/>
-    <row r="591" customFormat="1"/>
-    <row r="592" customFormat="1"/>
-    <row r="593" customFormat="1"/>
-    <row r="594" customFormat="1"/>
-    <row r="595" customFormat="1"/>
-    <row r="596" customFormat="1"/>
-    <row r="597" customFormat="1"/>
-    <row r="598" customFormat="1"/>
-    <row r="599" customFormat="1"/>
-    <row r="600" customFormat="1"/>
-    <row r="601" customFormat="1"/>
-    <row r="602" customFormat="1"/>
-    <row r="603" customFormat="1"/>
-    <row r="604" customFormat="1"/>
-    <row r="605" customFormat="1"/>
-    <row r="606" customFormat="1"/>
-    <row r="607" customFormat="1"/>
-    <row r="608" customFormat="1"/>
-    <row r="609" customFormat="1"/>
-    <row r="610" customFormat="1"/>
-    <row r="611" customFormat="1"/>
-    <row r="612" customFormat="1"/>
-    <row r="613" customFormat="1"/>
-    <row r="614" customFormat="1"/>
-    <row r="615" customFormat="1"/>
-    <row r="616" customFormat="1"/>
-    <row r="617" customFormat="1"/>
-    <row r="618" customFormat="1"/>
-    <row r="619" customFormat="1"/>
-    <row r="620" customFormat="1"/>
-    <row r="621" customFormat="1"/>
-    <row r="622" customFormat="1"/>
-    <row r="623" customFormat="1"/>
-    <row r="624" customFormat="1"/>
-    <row r="625" customFormat="1"/>
-    <row r="626" customFormat="1"/>
-    <row r="627" customFormat="1"/>
-    <row r="628" customFormat="1"/>
-    <row r="629" customFormat="1"/>
-    <row r="630" customFormat="1"/>
-    <row r="631" customFormat="1"/>
-    <row r="632" customFormat="1"/>
-    <row r="633" customFormat="1"/>
-    <row r="634" customFormat="1"/>
-    <row r="635" customFormat="1"/>
-    <row r="636" customFormat="1"/>
-    <row r="637" customFormat="1"/>
-    <row r="638" customFormat="1"/>
-    <row r="639" customFormat="1"/>
-    <row r="640" customFormat="1"/>
-    <row r="641" customFormat="1"/>
-    <row r="642" customFormat="1"/>
-    <row r="643" customFormat="1"/>
-    <row r="644" customFormat="1"/>
-    <row r="645" customFormat="1"/>
-    <row r="646" customFormat="1"/>
-    <row r="647" customFormat="1"/>
-    <row r="648" customFormat="1"/>
-    <row r="649" customFormat="1"/>
-    <row r="650" customFormat="1"/>
-    <row r="651" customFormat="1"/>
-    <row r="652" customFormat="1"/>
-    <row r="653" customFormat="1"/>
-    <row r="654" customFormat="1"/>
-    <row r="655" customFormat="1"/>
-    <row r="656" customFormat="1"/>
-    <row r="657" customFormat="1"/>
-    <row r="658" customFormat="1"/>
-    <row r="659" customFormat="1"/>
-    <row r="660" customFormat="1"/>
-    <row r="661" customFormat="1"/>
-    <row r="662" customFormat="1"/>
-    <row r="663" customFormat="1"/>
-    <row r="664" customFormat="1"/>
-    <row r="665" customFormat="1"/>
-    <row r="666" customFormat="1"/>
-    <row r="667" customFormat="1"/>
-    <row r="668" customFormat="1"/>
-    <row r="669" customFormat="1"/>
-    <row r="670" customFormat="1"/>
-    <row r="671" customFormat="1"/>
-    <row r="672" customFormat="1"/>
-    <row r="673" customFormat="1"/>
-    <row r="674" customFormat="1"/>
-    <row r="675" customFormat="1"/>
-    <row r="676" customFormat="1"/>
-    <row r="677" customFormat="1"/>
-    <row r="678" customFormat="1"/>
-    <row r="679" customFormat="1"/>
-    <row r="680" customFormat="1"/>
-    <row r="681" customFormat="1"/>
-    <row r="682" customFormat="1"/>
-    <row r="683" customFormat="1"/>
-    <row r="684" customFormat="1"/>
-    <row r="685" customFormat="1"/>
-    <row r="686" customFormat="1"/>
-    <row r="687" customFormat="1"/>
-    <row r="688" customFormat="1"/>
-    <row r="689" customFormat="1"/>
-    <row r="690" customFormat="1"/>
-    <row r="691" customFormat="1"/>
-    <row r="692" customFormat="1"/>
-    <row r="693" customFormat="1"/>
-    <row r="694" customFormat="1"/>
-    <row r="695" customFormat="1"/>
-    <row r="696" customFormat="1"/>
-    <row r="697" customFormat="1"/>
-    <row r="698" customFormat="1"/>
-    <row r="699" customFormat="1"/>
-    <row r="700" customFormat="1"/>
-    <row r="701" customFormat="1"/>
-    <row r="702" customFormat="1"/>
-    <row r="703" customFormat="1"/>
-    <row r="704" customFormat="1"/>
-    <row r="705" customFormat="1"/>
-    <row r="706" customFormat="1"/>
-    <row r="707" customFormat="1"/>
-    <row r="708" customFormat="1"/>
-    <row r="709" customFormat="1"/>
-    <row r="710" customFormat="1"/>
-    <row r="711" customFormat="1"/>
-    <row r="712" customFormat="1"/>
-    <row r="713" customFormat="1"/>
-    <row r="714" customFormat="1"/>
-    <row r="715" customFormat="1"/>
-    <row r="716" customFormat="1"/>
-    <row r="717" customFormat="1"/>
-    <row r="718" customFormat="1"/>
-    <row r="719" customFormat="1"/>
-    <row r="720" customFormat="1"/>
-    <row r="721" customFormat="1"/>
-    <row r="722" customFormat="1"/>
-    <row r="723" customFormat="1"/>
-    <row r="724" customFormat="1"/>
-    <row r="725" customFormat="1"/>
-    <row r="726" customFormat="1"/>
-    <row r="727" customFormat="1"/>
-    <row r="728" customFormat="1"/>
-    <row r="729" customFormat="1"/>
-    <row r="730" customFormat="1"/>
-    <row r="731" customFormat="1"/>
-    <row r="732" customFormat="1"/>
-    <row r="733" customFormat="1"/>
-    <row r="734" customFormat="1"/>
-    <row r="735" customFormat="1"/>
-    <row r="736" customFormat="1"/>
-    <row r="737" customFormat="1"/>
-    <row r="738" customFormat="1"/>
-    <row r="739" customFormat="1"/>
-    <row r="740" customFormat="1"/>
-    <row r="741" customFormat="1"/>
-    <row r="742" customFormat="1"/>
-    <row r="743" customFormat="1"/>
-    <row r="744" customFormat="1"/>
-    <row r="745" customFormat="1"/>
-    <row r="746" customFormat="1"/>
-    <row r="747" customFormat="1"/>
-    <row r="748" customFormat="1"/>
-    <row r="749" customFormat="1"/>
-    <row r="750" customFormat="1"/>
-    <row r="751" customFormat="1"/>
-    <row r="752" customFormat="1"/>
-    <row r="753" customFormat="1"/>
-    <row r="754" customFormat="1"/>
-    <row r="755" customFormat="1"/>
-    <row r="756" customFormat="1"/>
-    <row r="757" customFormat="1"/>
-    <row r="758" customFormat="1"/>
-    <row r="759" customFormat="1"/>
-    <row r="760" customFormat="1"/>
-    <row r="761" customFormat="1"/>
-    <row r="762" customFormat="1"/>
-    <row r="763" customFormat="1"/>
-    <row r="764" customFormat="1"/>
-    <row r="765" customFormat="1"/>
-    <row r="766" customFormat="1"/>
-    <row r="767" customFormat="1"/>
-    <row r="768" customFormat="1"/>
-    <row r="769" customFormat="1"/>
-    <row r="770" customFormat="1"/>
-    <row r="771" customFormat="1"/>
-    <row r="772" customFormat="1"/>
-    <row r="773" customFormat="1"/>
-    <row r="774" customFormat="1"/>
-    <row r="775" customFormat="1"/>
-    <row r="776" customFormat="1"/>
-    <row r="777" customFormat="1"/>
-    <row r="778" customFormat="1"/>
-    <row r="779" customFormat="1"/>
-    <row r="780" customFormat="1"/>
-    <row r="781" customFormat="1"/>
-    <row r="782" customFormat="1"/>
-    <row r="783" customFormat="1"/>
-    <row r="784" customFormat="1"/>
-    <row r="785" customFormat="1"/>
-    <row r="786" customFormat="1"/>
-    <row r="787" customFormat="1"/>
-    <row r="788" customFormat="1"/>
-    <row r="789" customFormat="1"/>
-    <row r="790" customFormat="1"/>
-    <row r="791" customFormat="1"/>
-    <row r="792" customFormat="1"/>
-    <row r="793" customFormat="1"/>
-    <row r="794" customFormat="1"/>
-    <row r="795" customFormat="1"/>
-    <row r="796" customFormat="1"/>
-    <row r="797" customFormat="1"/>
-    <row r="798" customFormat="1"/>
-    <row r="799" customFormat="1"/>
-    <row r="800" customFormat="1"/>
-    <row r="801" customFormat="1"/>
-    <row r="802" customFormat="1"/>
-    <row r="803" customFormat="1"/>
-    <row r="804" customFormat="1"/>
-    <row r="805" customFormat="1"/>
-    <row r="806" customFormat="1"/>
-    <row r="807" customFormat="1"/>
-    <row r="808" customFormat="1"/>
-    <row r="809" customFormat="1"/>
-    <row r="810" customFormat="1"/>
-    <row r="811" customFormat="1"/>
-    <row r="812" customFormat="1"/>
-    <row r="813" customFormat="1"/>
-    <row r="814" customFormat="1"/>
-    <row r="815" customFormat="1"/>
-    <row r="816" customFormat="1"/>
-    <row r="817" customFormat="1"/>
-    <row r="818" customFormat="1"/>
-    <row r="819" customFormat="1"/>
-    <row r="820" customFormat="1"/>
-    <row r="821" customFormat="1"/>
-    <row r="822" customFormat="1"/>
-    <row r="823" customFormat="1"/>
-    <row r="824" customFormat="1"/>
-    <row r="825" customFormat="1"/>
-    <row r="826" customFormat="1"/>
-    <row r="827" customFormat="1"/>
-    <row r="828" customFormat="1"/>
-    <row r="829" customFormat="1"/>
-    <row r="830" customFormat="1"/>
-    <row r="831" customFormat="1"/>
-    <row r="832" customFormat="1"/>
-    <row r="833" customFormat="1"/>
-    <row r="834" customFormat="1"/>
-    <row r="835" customFormat="1"/>
-    <row r="836" customFormat="1"/>
-    <row r="837" customFormat="1"/>
-    <row r="838" customFormat="1"/>
-    <row r="839" customFormat="1"/>
-    <row r="840" customFormat="1"/>
-    <row r="841" customFormat="1"/>
-    <row r="842" customFormat="1"/>
-    <row r="843" customFormat="1"/>
-    <row r="844" customFormat="1"/>
-    <row r="845" customFormat="1"/>
-    <row r="846" customFormat="1"/>
-    <row r="847" customFormat="1"/>
-    <row r="848" customFormat="1"/>
-    <row r="849" customFormat="1"/>
-    <row r="850" customFormat="1"/>
-    <row r="851" customFormat="1"/>
-    <row r="852" customFormat="1"/>
-    <row r="853" customFormat="1"/>
-    <row r="854" customFormat="1"/>
-    <row r="855" customFormat="1"/>
-    <row r="856" customFormat="1"/>
-    <row r="857" customFormat="1"/>
-    <row r="858" customFormat="1"/>
-    <row r="859" customFormat="1"/>
-    <row r="860" customFormat="1"/>
-    <row r="861" customFormat="1"/>
-    <row r="862" customFormat="1"/>
-    <row r="863" customFormat="1"/>
-    <row r="864" customFormat="1"/>
-    <row r="865" customFormat="1"/>
-    <row r="866" customFormat="1"/>
-    <row r="867" customFormat="1"/>
-    <row r="868" customFormat="1"/>
-    <row r="869" customFormat="1"/>
-    <row r="870" customFormat="1"/>
-    <row r="871" customFormat="1"/>
-    <row r="872" customFormat="1"/>
-    <row r="873" customFormat="1"/>
-    <row r="874" customFormat="1"/>
-    <row r="875" customFormat="1"/>
-    <row r="876" customFormat="1"/>
-    <row r="877" customFormat="1"/>
-    <row r="878" customFormat="1"/>
-    <row r="879" customFormat="1"/>
-    <row r="880" customFormat="1"/>
-    <row r="881" customFormat="1"/>
-    <row r="882" customFormat="1"/>
-    <row r="883" customFormat="1"/>
-    <row r="884" customFormat="1"/>
-    <row r="885" customFormat="1"/>
-    <row r="886" customFormat="1"/>
-    <row r="887" customFormat="1"/>
-    <row r="888" customFormat="1"/>
-    <row r="889" customFormat="1"/>
-    <row r="890" customFormat="1"/>
-    <row r="891" customFormat="1"/>
-    <row r="892" customFormat="1"/>
-    <row r="893" customFormat="1"/>
-    <row r="894" customFormat="1"/>
-    <row r="895" customFormat="1"/>
-    <row r="896" customFormat="1"/>
-    <row r="897" customFormat="1"/>
-    <row r="898" customFormat="1"/>
-    <row r="899" customFormat="1"/>
-    <row r="900" customFormat="1"/>
-    <row r="901" customFormat="1"/>
-    <row r="902" customFormat="1"/>
-    <row r="903" customFormat="1"/>
-    <row r="904" customFormat="1"/>
-    <row r="905" customFormat="1"/>
-    <row r="906" customFormat="1"/>
-    <row r="907" customFormat="1"/>
-    <row r="908" customFormat="1"/>
-    <row r="909" customFormat="1"/>
-    <row r="910" customFormat="1"/>
-    <row r="911" customFormat="1"/>
-    <row r="912" customFormat="1"/>
-    <row r="913" customFormat="1"/>
-    <row r="914" customFormat="1"/>
-    <row r="915" customFormat="1"/>
-    <row r="916" customFormat="1"/>
-    <row r="917" customFormat="1"/>
-    <row r="918" customFormat="1"/>
-    <row r="919" customFormat="1"/>
-    <row r="920" customFormat="1"/>
-    <row r="921" customFormat="1"/>
-    <row r="922" customFormat="1"/>
-    <row r="923" customFormat="1"/>
-    <row r="924" customFormat="1"/>
-    <row r="925" customFormat="1"/>
-    <row r="926" customFormat="1"/>
-    <row r="927" customFormat="1"/>
-    <row r="928" customFormat="1"/>
-    <row r="929" customFormat="1"/>
-    <row r="930" customFormat="1"/>
-    <row r="931" customFormat="1"/>
-    <row r="932" customFormat="1"/>
-    <row r="933" customFormat="1"/>
-    <row r="934" customFormat="1"/>
-    <row r="935" customFormat="1"/>
-    <row r="936" customFormat="1"/>
-    <row r="937" customFormat="1"/>
-    <row r="938" customFormat="1"/>
-    <row r="939" customFormat="1"/>
-    <row r="940" customFormat="1"/>
-    <row r="941" customFormat="1"/>
-    <row r="942" customFormat="1"/>
-    <row r="943" customFormat="1"/>
-    <row r="944" customFormat="1"/>
-    <row r="945" customFormat="1"/>
-    <row r="946" customFormat="1"/>
-    <row r="947" customFormat="1"/>
-    <row r="948" customFormat="1"/>
-    <row r="949" customFormat="1"/>
-    <row r="950" customFormat="1"/>
-    <row r="951" customFormat="1"/>
-    <row r="952" customFormat="1"/>
-    <row r="953" customFormat="1"/>
-    <row r="954" customFormat="1"/>
-    <row r="955" customFormat="1"/>
-    <row r="956" customFormat="1"/>
-    <row r="957" customFormat="1"/>
-    <row r="958" customFormat="1"/>
-    <row r="959" customFormat="1"/>
-    <row r="960" customFormat="1"/>
-    <row r="961" customFormat="1"/>
-    <row r="962" customFormat="1"/>
-    <row r="963" customFormat="1"/>
-    <row r="964" customFormat="1"/>
-    <row r="965" customFormat="1"/>
-    <row r="966" customFormat="1"/>
-    <row r="967" customFormat="1"/>
-    <row r="968" customFormat="1"/>
-    <row r="969" customFormat="1"/>
-    <row r="970" customFormat="1"/>
-    <row r="971" customFormat="1"/>
-    <row r="972" customFormat="1"/>
-    <row r="973" customFormat="1"/>
-    <row r="974" customFormat="1"/>
-    <row r="975" customFormat="1"/>
-    <row r="976" customFormat="1"/>
-    <row r="977" customFormat="1"/>
-    <row r="978" customFormat="1"/>
-    <row r="979" customFormat="1"/>
-    <row r="980" customFormat="1"/>
-    <row r="981" customFormat="1"/>
-    <row r="982" customFormat="1"/>
-    <row r="983" customFormat="1"/>
-    <row r="984" customFormat="1"/>
-    <row r="985" customFormat="1"/>
-    <row r="986" customFormat="1"/>
-    <row r="987" customFormat="1"/>
-    <row r="988" customFormat="1"/>
-    <row r="989" customFormat="1"/>
-    <row r="990" customFormat="1"/>
-    <row r="991" customFormat="1"/>
-    <row r="992" customFormat="1"/>
-    <row r="993" customFormat="1"/>
-    <row r="994" customFormat="1"/>
-    <row r="995" customFormat="1"/>
-    <row r="996" customFormat="1"/>
-    <row r="997" customFormat="1"/>
-    <row r="998" customFormat="1"/>
-    <row r="999" customFormat="1"/>
-    <row r="1000" customFormat="1"/>
-    <row r="1001" customFormat="1"/>
-    <row r="1002" customFormat="1"/>
-    <row r="1003" customFormat="1"/>
-    <row r="1004" customFormat="1"/>
-    <row r="1005" customFormat="1"/>
-    <row r="1006" customFormat="1"/>
-    <row r="1007" customFormat="1"/>
-    <row r="1008" customFormat="1"/>
-    <row r="1009" customFormat="1"/>
-    <row r="1010" customFormat="1"/>
-    <row r="1011" customFormat="1"/>
-    <row r="1012" customFormat="1"/>
-    <row r="1013" customFormat="1"/>
-    <row r="1014" customFormat="1"/>
-    <row r="1015" customFormat="1"/>
-    <row r="1016" customFormat="1"/>
-    <row r="1017" customFormat="1"/>
-    <row r="1018" customFormat="1"/>
-    <row r="1019" customFormat="1"/>
-    <row r="1020" customFormat="1"/>
-    <row r="1021" customFormat="1"/>
-    <row r="1022" customFormat="1"/>
-    <row r="1023" customFormat="1"/>
-    <row r="1024" customFormat="1"/>
-    <row r="1025" customFormat="1"/>
-    <row r="1026" customFormat="1"/>
-    <row r="1027" customFormat="1"/>
-    <row r="1028" customFormat="1"/>
-    <row r="1029" customFormat="1"/>
-    <row r="1030" customFormat="1"/>
-    <row r="1031" customFormat="1"/>
-    <row r="1032" customFormat="1"/>
-    <row r="1033" customFormat="1"/>
-    <row r="1034" customFormat="1"/>
-    <row r="1035" customFormat="1"/>
-    <row r="1036" customFormat="1"/>
-    <row r="1037" customFormat="1"/>
-    <row r="1038" customFormat="1"/>
-    <row r="1039" customFormat="1"/>
-    <row r="1040" customFormat="1"/>
-    <row r="1041" customFormat="1"/>
-    <row r="1042" customFormat="1"/>
-    <row r="1043" customFormat="1"/>
-    <row r="1044" customFormat="1"/>
-    <row r="1045" customFormat="1"/>
-    <row r="1046" customFormat="1"/>
-    <row r="1047" customFormat="1"/>
-    <row r="1048" customFormat="1"/>
-    <row r="1049" customFormat="1"/>
-    <row r="1050" customFormat="1"/>
-    <row r="1051" customFormat="1"/>
-    <row r="1052" customFormat="1"/>
-    <row r="1053" customFormat="1"/>
-    <row r="1054" customFormat="1"/>
-    <row r="1055" customFormat="1"/>
-    <row r="1056" customFormat="1"/>
-    <row r="1057" customFormat="1"/>
-    <row r="1058" customFormat="1"/>
-    <row r="1059" customFormat="1"/>
-    <row r="1060" customFormat="1"/>
-    <row r="1061" customFormat="1"/>
-    <row r="1062" customFormat="1"/>
-    <row r="1063" customFormat="1"/>
-    <row r="1064" customFormat="1"/>
-    <row r="1065" customFormat="1"/>
-    <row r="1066" customFormat="1"/>
-    <row r="1067" customFormat="1"/>
-    <row r="1068" customFormat="1"/>
-    <row r="1069" customFormat="1"/>
-    <row r="1070" customFormat="1"/>
-    <row r="1071" customFormat="1"/>
-    <row r="1072" customFormat="1"/>
-    <row r="1073" customFormat="1"/>
-    <row r="1074" customFormat="1"/>
-    <row r="1075" customFormat="1"/>
-    <row r="1076" customFormat="1"/>
-    <row r="1077" customFormat="1"/>
-    <row r="1078" customFormat="1"/>
-    <row r="1079" customFormat="1"/>
-    <row r="1080" customFormat="1"/>
-    <row r="1081" customFormat="1"/>
-    <row r="1082" customFormat="1"/>
-    <row r="1083" customFormat="1"/>
-    <row r="1084" customFormat="1"/>
-    <row r="1085" customFormat="1"/>
-    <row r="1086" customFormat="1"/>
-    <row r="1087" customFormat="1"/>
-    <row r="1088" customFormat="1"/>
-    <row r="1089" customFormat="1"/>
-    <row r="1090" customFormat="1"/>
-    <row r="1091" customFormat="1"/>
-    <row r="1092" customFormat="1"/>
-    <row r="1093" customFormat="1"/>
-    <row r="1094" customFormat="1"/>
-    <row r="1095" customFormat="1"/>
-    <row r="1096" customFormat="1"/>
-    <row r="1097" customFormat="1"/>
-    <row r="1098" customFormat="1"/>
-    <row r="1099" customFormat="1"/>
-    <row r="1100" customFormat="1"/>
-    <row r="1101" customFormat="1"/>
-    <row r="1102" customFormat="1"/>
-    <row r="1103" customFormat="1"/>
-    <row r="1104" customFormat="1"/>
-    <row r="1105" customFormat="1"/>
-    <row r="1106" customFormat="1"/>
-    <row r="1107" customFormat="1"/>
-    <row r="1108" customFormat="1"/>
-    <row r="1109" customFormat="1"/>
-    <row r="1110" customFormat="1"/>
-    <row r="1111" customFormat="1"/>
-    <row r="1112" customFormat="1"/>
-    <row r="1113" customFormat="1"/>
-    <row r="1114" customFormat="1"/>
-    <row r="1115" customFormat="1"/>
-    <row r="1116" customFormat="1"/>
-    <row r="1117" customFormat="1"/>
-    <row r="1118" customFormat="1"/>
-    <row r="1119" customFormat="1"/>
-    <row r="1120" customFormat="1"/>
-    <row r="1121" customFormat="1"/>
-    <row r="1122" customFormat="1"/>
-    <row r="1123" customFormat="1"/>
-    <row r="1124" customFormat="1"/>
-    <row r="1125" customFormat="1"/>
-    <row r="1126" customFormat="1"/>
-    <row r="1127" customFormat="1"/>
-    <row r="1128" customFormat="1"/>
-    <row r="1129" customFormat="1"/>
-    <row r="1130" customFormat="1"/>
-    <row r="1131" customFormat="1"/>
-    <row r="1132" customFormat="1"/>
-    <row r="1133" customFormat="1"/>
-    <row r="1134" customFormat="1"/>
-    <row r="1135" customFormat="1"/>
-    <row r="1136" customFormat="1"/>
-    <row r="1137" customFormat="1"/>
-    <row r="1138" customFormat="1"/>
-    <row r="1139" customFormat="1"/>
-    <row r="1140" customFormat="1"/>
-    <row r="1141" customFormat="1"/>
-    <row r="1142" customFormat="1"/>
-    <row r="1143" customFormat="1"/>
-    <row r="1144" customFormat="1"/>
-    <row r="1145" customFormat="1"/>
-    <row r="1146" customFormat="1"/>
-    <row r="1147" customFormat="1"/>
-    <row r="1148" customFormat="1"/>
-    <row r="1149" customFormat="1"/>
-    <row r="1150" customFormat="1"/>
-    <row r="1151" customFormat="1"/>
-    <row r="1152" customFormat="1"/>
-    <row r="1153" customFormat="1"/>
-    <row r="1154" customFormat="1"/>
-    <row r="1155" customFormat="1"/>
-    <row r="1156" customFormat="1"/>
-    <row r="1157" customFormat="1"/>
-    <row r="1158" customFormat="1"/>
-    <row r="1159" customFormat="1"/>
-    <row r="1160" customFormat="1"/>
-    <row r="1161" customFormat="1"/>
-    <row r="1162" customFormat="1"/>
-    <row r="1163" customFormat="1"/>
-    <row r="1164" customFormat="1"/>
-    <row r="1165" customFormat="1"/>
-    <row r="1166" customFormat="1"/>
-    <row r="1167" customFormat="1"/>
-    <row r="1168" customFormat="1"/>
-    <row r="1169" customFormat="1"/>
-    <row r="1170" customFormat="1"/>
-    <row r="1171" customFormat="1"/>
-    <row r="1172" customFormat="1"/>
-    <row r="1173" customFormat="1"/>
-    <row r="1174" customFormat="1"/>
-    <row r="1175" customFormat="1"/>
-    <row r="1176" customFormat="1"/>
-    <row r="1177" customFormat="1"/>
-    <row r="1178" customFormat="1"/>
-    <row r="1179" customFormat="1"/>
-    <row r="1180" customFormat="1"/>
-    <row r="1181" customFormat="1"/>
-    <row r="1182" customFormat="1"/>
-    <row r="1183" customFormat="1"/>
-    <row r="1184" customFormat="1"/>
-    <row r="1185" customFormat="1"/>
-    <row r="1186" customFormat="1"/>
-    <row r="1187" customFormat="1"/>
-    <row r="1188" customFormat="1"/>
-    <row r="1189" customFormat="1"/>
-    <row r="1190" customFormat="1"/>
-    <row r="1191" customFormat="1"/>
-    <row r="1192" customFormat="1"/>
-    <row r="1193" customFormat="1"/>
-    <row r="1194" customFormat="1"/>
-    <row r="1195" customFormat="1"/>
-    <row r="1196" customFormat="1"/>
-    <row r="1197" customFormat="1"/>
-    <row r="1198" customFormat="1"/>
-    <row r="1199" customFormat="1"/>
-    <row r="1200" customFormat="1"/>
-    <row r="1201" customFormat="1"/>
-    <row r="1202" customFormat="1"/>
-    <row r="1203" customFormat="1"/>
-    <row r="1204" customFormat="1"/>
-    <row r="1205" customFormat="1"/>
-    <row r="1206" customFormat="1"/>
-    <row r="1207" customFormat="1"/>
-    <row r="1208" customFormat="1"/>
-    <row r="1209" customFormat="1"/>
-    <row r="1210" customFormat="1"/>
-    <row r="1211" customFormat="1"/>
-    <row r="1212" customFormat="1"/>
-    <row r="1213" customFormat="1"/>
-    <row r="1214" customFormat="1"/>
-    <row r="1215" customFormat="1"/>
-    <row r="1216" customFormat="1"/>
-    <row r="1217" customFormat="1"/>
-    <row r="1218" customFormat="1"/>
-    <row r="1219" customFormat="1"/>
-    <row r="1220" customFormat="1"/>
-    <row r="1221" customFormat="1"/>
-    <row r="1222" customFormat="1"/>
-    <row r="1223" customFormat="1"/>
-    <row r="1224" customFormat="1"/>
-    <row r="1225" customFormat="1"/>
-    <row r="1226" customFormat="1"/>
-    <row r="1227" customFormat="1"/>
-    <row r="1228" customFormat="1"/>
-    <row r="1229" customFormat="1"/>
-    <row r="1230" customFormat="1"/>
-    <row r="1231" customFormat="1"/>
-    <row r="1232" customFormat="1"/>
-    <row r="1233" customFormat="1"/>
-    <row r="1234" customFormat="1"/>
-    <row r="1235" customFormat="1"/>
-    <row r="1236" customFormat="1"/>
-    <row r="1237" customFormat="1"/>
-    <row r="1238" customFormat="1"/>
-    <row r="1239" customFormat="1"/>
-    <row r="1240" customFormat="1"/>
-    <row r="1241" customFormat="1"/>
-    <row r="1242" customFormat="1"/>
-    <row r="1243" customFormat="1"/>
-    <row r="1244" customFormat="1"/>
-    <row r="1245" customFormat="1"/>
-    <row r="1246" customFormat="1"/>
-    <row r="1247" customFormat="1"/>
-    <row r="1248" customFormat="1"/>
-    <row r="1249" customFormat="1"/>
-    <row r="1250" customFormat="1"/>
-    <row r="1251" customFormat="1"/>
-    <row r="1252" customFormat="1"/>
-    <row r="1253" customFormat="1"/>
-    <row r="1254" customFormat="1"/>
-    <row r="1255" customFormat="1"/>
-    <row r="1256" customFormat="1"/>
-    <row r="1257" customFormat="1"/>
-    <row r="1258" customFormat="1"/>
-    <row r="1259" customFormat="1"/>
-    <row r="1260" customFormat="1"/>
-    <row r="1261" customFormat="1"/>
-    <row r="1262" customFormat="1"/>
-    <row r="1263" customFormat="1"/>
-    <row r="1264" customFormat="1"/>
-    <row r="1265" customFormat="1"/>
-    <row r="1266" customFormat="1"/>
-    <row r="1267" customFormat="1"/>
-    <row r="1268" customFormat="1"/>
-    <row r="1269" customFormat="1"/>
-    <row r="1270" customFormat="1"/>
-    <row r="1271" customFormat="1"/>
-    <row r="1272" customFormat="1"/>
-    <row r="1273" customFormat="1"/>
-    <row r="1274" customFormat="1"/>
-    <row r="1275" customFormat="1"/>
-    <row r="1276" customFormat="1"/>
-    <row r="1277" customFormat="1"/>
-    <row r="1278" customFormat="1"/>
-    <row r="1279" customFormat="1"/>
-    <row r="1280" customFormat="1"/>
-    <row r="1281" customFormat="1"/>
-    <row r="1282" customFormat="1"/>
-    <row r="1283" customFormat="1"/>
-    <row r="1284" customFormat="1"/>
-    <row r="1285" customFormat="1"/>
-    <row r="1286" customFormat="1"/>
-    <row r="1287" customFormat="1"/>
-    <row r="1288" customFormat="1"/>
-    <row r="1289" customFormat="1"/>
-    <row r="1290" customFormat="1"/>
-    <row r="1291" customFormat="1"/>
-    <row r="1292" customFormat="1"/>
-    <row r="1293" customFormat="1"/>
-    <row r="1294" customFormat="1"/>
-    <row r="1295" customFormat="1"/>
-    <row r="1296" customFormat="1"/>
-    <row r="1297" customFormat="1"/>
-    <row r="1298" customFormat="1"/>
-    <row r="1299" customFormat="1"/>
-    <row r="1300" customFormat="1"/>
-    <row r="1301" customFormat="1"/>
-    <row r="1302" customFormat="1"/>
-    <row r="1303" customFormat="1"/>
-    <row r="1304" customFormat="1"/>
-    <row r="1305" customFormat="1"/>
-    <row r="1306" customFormat="1"/>
-    <row r="1307" customFormat="1"/>
-    <row r="1308" customFormat="1"/>
-    <row r="1309" customFormat="1"/>
-    <row r="1310" customFormat="1"/>
-    <row r="1311" customFormat="1"/>
-    <row r="1312" customFormat="1"/>
-    <row r="1313" customFormat="1"/>
-    <row r="1314" customFormat="1"/>
-    <row r="1315" customFormat="1"/>
-    <row r="1316" customFormat="1"/>
-    <row r="1317" customFormat="1"/>
-    <row r="1318" customFormat="1"/>
-    <row r="1319" customFormat="1"/>
-    <row r="1320" customFormat="1"/>
-    <row r="1321" customFormat="1"/>
-    <row r="1322" customFormat="1"/>
-    <row r="1323" customFormat="1"/>
-    <row r="1324" customFormat="1"/>
-    <row r="1325" customFormat="1"/>
-    <row r="1326" customFormat="1"/>
-    <row r="1327" customFormat="1"/>
-    <row r="1328" customFormat="1"/>
-    <row r="1329" customFormat="1"/>
-    <row r="1330" customFormat="1"/>
-    <row r="1331" customFormat="1"/>
-    <row r="1332" customFormat="1"/>
-    <row r="1333" customFormat="1"/>
-    <row r="1334" customFormat="1"/>
-    <row r="1335" customFormat="1"/>
-    <row r="1336" customFormat="1"/>
-    <row r="1337" customFormat="1"/>
-    <row r="1338" customFormat="1"/>
-    <row r="1339" customFormat="1"/>
-    <row r="1340" customFormat="1"/>
-    <row r="1341" customFormat="1"/>
-    <row r="1342" customFormat="1"/>
-    <row r="1343" customFormat="1"/>
-    <row r="1344" customFormat="1"/>
-    <row r="1345" customFormat="1"/>
-    <row r="1346" customFormat="1"/>
-    <row r="1347" customFormat="1"/>
-    <row r="1348" customFormat="1"/>
-    <row r="1349" customFormat="1"/>
-    <row r="1350" customFormat="1"/>
-    <row r="1351" customFormat="1"/>
-    <row r="1352" customFormat="1"/>
-    <row r="1353" customFormat="1"/>
-    <row r="1354" customFormat="1"/>
-    <row r="1355" customFormat="1"/>
-    <row r="1356" customFormat="1"/>
-    <row r="1357" customFormat="1"/>
-    <row r="1358" customFormat="1"/>
-    <row r="1359" customFormat="1"/>
-    <row r="1360" customFormat="1"/>
-    <row r="1361" customFormat="1"/>
-    <row r="1362" customFormat="1"/>
-    <row r="1363" customFormat="1"/>
-    <row r="1364" customFormat="1"/>
-    <row r="1365" customFormat="1"/>
-    <row r="1366" customFormat="1"/>
-    <row r="1367" customFormat="1"/>
-    <row r="1368" customFormat="1"/>
-    <row r="1369" customFormat="1"/>
-    <row r="1370" customFormat="1"/>
-    <row r="1371" customFormat="1"/>
-    <row r="1372" customFormat="1"/>
-    <row r="1373" customFormat="1"/>
-    <row r="1374" customFormat="1"/>
-    <row r="1375" customFormat="1"/>
-    <row r="1376" customFormat="1"/>
-    <row r="1377" customFormat="1"/>
-    <row r="1378" customFormat="1"/>
-    <row r="1379" customFormat="1"/>
-    <row r="1380" customFormat="1"/>
-    <row r="1381" customFormat="1"/>
-    <row r="1382" customFormat="1"/>
-    <row r="1383" customFormat="1"/>
-    <row r="1384" customFormat="1"/>
-    <row r="1385" customFormat="1"/>
-    <row r="1386" customFormat="1"/>
-    <row r="1387" customFormat="1"/>
-    <row r="1388" customFormat="1"/>
-    <row r="1389" customFormat="1"/>
-    <row r="1390" customFormat="1"/>
-    <row r="1391" customFormat="1"/>
-    <row r="1392" customFormat="1"/>
-    <row r="1393" customFormat="1"/>
-    <row r="1394" customFormat="1"/>
-    <row r="1395" customFormat="1"/>
-    <row r="1396" customFormat="1"/>
-    <row r="1397" customFormat="1"/>
-    <row r="1398" customFormat="1"/>
-    <row r="1399" customFormat="1"/>
-    <row r="1400" customFormat="1"/>
-    <row r="1401" customFormat="1"/>
-    <row r="1402" customFormat="1"/>
-    <row r="1403" customFormat="1"/>
-    <row r="1404" customFormat="1"/>
-    <row r="1405" customFormat="1"/>
-    <row r="1406" customFormat="1"/>
-    <row r="1407" customFormat="1"/>
-    <row r="1408" customFormat="1"/>
-    <row r="1409" customFormat="1"/>
-    <row r="1410" customFormat="1"/>
-    <row r="1411" customFormat="1"/>
-    <row r="1412" customFormat="1"/>
-    <row r="1413" customFormat="1"/>
-    <row r="1414" customFormat="1"/>
-    <row r="1415" customFormat="1"/>
-    <row r="1416" customFormat="1"/>
-    <row r="1417" customFormat="1"/>
-    <row r="1418" customFormat="1"/>
-    <row r="1419" customFormat="1"/>
-    <row r="1420" customFormat="1"/>
-    <row r="1421" customFormat="1"/>
-    <row r="1422" customFormat="1"/>
-    <row r="1423" customFormat="1"/>
-    <row r="1424" customFormat="1"/>
-    <row r="1425" customFormat="1"/>
-    <row r="1426" customFormat="1"/>
-    <row r="1427" customFormat="1"/>
-    <row r="1428" customFormat="1"/>
-    <row r="1429" customFormat="1"/>
-    <row r="1430" customFormat="1"/>
-    <row r="1431" customFormat="1"/>
-    <row r="1432" customFormat="1"/>
-    <row r="1433" customFormat="1"/>
-    <row r="1434" customFormat="1"/>
-    <row r="1435" customFormat="1"/>
-    <row r="1436" customFormat="1"/>
-    <row r="1437" customFormat="1"/>
-    <row r="1438" customFormat="1"/>
-    <row r="1439" customFormat="1"/>
-    <row r="1440" customFormat="1"/>
-    <row r="1441" customFormat="1"/>
-    <row r="1442" customFormat="1"/>
-    <row r="1443" customFormat="1"/>
-    <row r="1444" customFormat="1"/>
-    <row r="1445" customFormat="1"/>
-    <row r="1446" customFormat="1"/>
-    <row r="1447" customFormat="1"/>
-    <row r="1448" customFormat="1"/>
-    <row r="1449" customFormat="1"/>
-    <row r="1450" customFormat="1"/>
-    <row r="1451" customFormat="1"/>
-    <row r="1452" customFormat="1"/>
-    <row r="1453" customFormat="1"/>
-    <row r="1454" customFormat="1"/>
-    <row r="1455" customFormat="1"/>
-    <row r="1456" customFormat="1"/>
-    <row r="1457" customFormat="1"/>
-    <row r="1458" customFormat="1"/>
-    <row r="1459" customFormat="1"/>
-    <row r="1460" customFormat="1"/>
-    <row r="1461" customFormat="1"/>
-    <row r="1462" customFormat="1"/>
-    <row r="1463" customFormat="1"/>
-    <row r="1464" customFormat="1"/>
-    <row r="1465" customFormat="1"/>
-    <row r="1466" customFormat="1"/>
-    <row r="1467" customFormat="1"/>
-    <row r="1468" customFormat="1"/>
-    <row r="1469" customFormat="1"/>
-    <row r="1470" customFormat="1"/>
-    <row r="1471" customFormat="1"/>
-    <row r="1472" customFormat="1"/>
-    <row r="1473" customFormat="1"/>
-    <row r="1474" customFormat="1"/>
-    <row r="1475" customFormat="1"/>
-    <row r="1476" customFormat="1"/>
-    <row r="1477" customFormat="1"/>
-    <row r="1478" customFormat="1"/>
-    <row r="1479" customFormat="1"/>
-    <row r="1480" customFormat="1"/>
-    <row r="1481" customFormat="1"/>
-    <row r="1482" customFormat="1"/>
-    <row r="1483" customFormat="1"/>
-    <row r="1484" customFormat="1"/>
-    <row r="1485" customFormat="1"/>
-    <row r="1486" customFormat="1"/>
-    <row r="1487" customFormat="1"/>
-    <row r="1488" customFormat="1"/>
-    <row r="1489" customFormat="1"/>
-    <row r="1490" customFormat="1"/>
-    <row r="1491" customFormat="1"/>
-    <row r="1492" customFormat="1"/>
-    <row r="1493" customFormat="1"/>
-    <row r="1494" customFormat="1"/>
-    <row r="1495" customFormat="1"/>
-    <row r="1496" customFormat="1"/>
-    <row r="1497" customFormat="1"/>
-    <row r="1498" customFormat="1"/>
-    <row r="1499" customFormat="1"/>
-    <row r="1500" customFormat="1"/>
-    <row r="1501" customFormat="1"/>
-    <row r="1502" customFormat="1"/>
-    <row r="1503" customFormat="1"/>
-    <row r="1504" customFormat="1"/>
-    <row r="1505" customFormat="1"/>
-    <row r="1506" customFormat="1"/>
-    <row r="1507" customFormat="1"/>
-    <row r="1508" customFormat="1"/>
   </sheetData>
   <autoFilter ref="A6:S7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
@@ -3827,10 +2396,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T1508"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3858,11 +2427,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="22" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3875,12 +2444,18 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="16"/>
@@ -3907,16 +2482,16 @@
       <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
@@ -3929,16 +2504,16 @@
       <c r="R4" s="27"/>
     </row>
     <row r="5" spans="1:20" s="22" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
@@ -4023,17 +2598,17 @@
         <v>91</v>
       </c>
       <c r="D7"/>
-      <c r="E7" t="s">
+      <c r="E7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>93</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -4657,12 +3232,8 @@
       <c r="J31" t="s">
         <v>74</v>
       </c>
-      <c r="K31" t="s">
-        <v>75</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32">
@@ -4893,11 +3464,11 @@
       <c r="J41" t="s">
         <v>113</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="L41" t="s">
-        <v>114</v>
+      <c r="L41" s="30" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -5181,1450 +3752,6 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
-    <row r="82" customFormat="1"/>
-    <row r="83" customFormat="1"/>
-    <row r="84" customFormat="1"/>
-    <row r="85" customFormat="1"/>
-    <row r="86" customFormat="1"/>
-    <row r="87" customFormat="1"/>
-    <row r="88" customFormat="1"/>
-    <row r="89" customFormat="1"/>
-    <row r="90" customFormat="1"/>
-    <row r="91" customFormat="1"/>
-    <row r="92" customFormat="1"/>
-    <row r="93" customFormat="1"/>
-    <row r="94" customFormat="1"/>
-    <row r="95" customFormat="1"/>
-    <row r="96" customFormat="1"/>
-    <row r="97" customFormat="1"/>
-    <row r="98" customFormat="1"/>
-    <row r="99" customFormat="1"/>
-    <row r="100" customFormat="1"/>
-    <row r="101" customFormat="1"/>
-    <row r="102" customFormat="1"/>
-    <row r="103" customFormat="1"/>
-    <row r="104" customFormat="1"/>
-    <row r="105" customFormat="1"/>
-    <row r="106" customFormat="1"/>
-    <row r="107" customFormat="1"/>
-    <row r="108" customFormat="1"/>
-    <row r="109" customFormat="1"/>
-    <row r="110" customFormat="1"/>
-    <row r="111" customFormat="1"/>
-    <row r="112" customFormat="1"/>
-    <row r="113" customFormat="1"/>
-    <row r="114" customFormat="1"/>
-    <row r="115" customFormat="1"/>
-    <row r="116" customFormat="1"/>
-    <row r="117" customFormat="1"/>
-    <row r="118" customFormat="1"/>
-    <row r="119" customFormat="1"/>
-    <row r="120" customFormat="1"/>
-    <row r="121" customFormat="1"/>
-    <row r="122" customFormat="1"/>
-    <row r="123" customFormat="1"/>
-    <row r="124" customFormat="1"/>
-    <row r="125" customFormat="1"/>
-    <row r="126" customFormat="1"/>
-    <row r="127" customFormat="1"/>
-    <row r="128" customFormat="1"/>
-    <row r="129" customFormat="1"/>
-    <row r="130" customFormat="1"/>
-    <row r="131" customFormat="1"/>
-    <row r="132" customFormat="1"/>
-    <row r="133" customFormat="1"/>
-    <row r="134" customFormat="1"/>
-    <row r="135" customFormat="1"/>
-    <row r="136" customFormat="1"/>
-    <row r="137" customFormat="1"/>
-    <row r="138" customFormat="1"/>
-    <row r="139" customFormat="1"/>
-    <row r="140" customFormat="1"/>
-    <row r="141" customFormat="1"/>
-    <row r="142" customFormat="1"/>
-    <row r="143" customFormat="1"/>
-    <row r="144" customFormat="1"/>
-    <row r="145" customFormat="1"/>
-    <row r="146" customFormat="1"/>
-    <row r="147" customFormat="1"/>
-    <row r="148" customFormat="1"/>
-    <row r="149" customFormat="1"/>
-    <row r="150" customFormat="1"/>
-    <row r="151" customFormat="1"/>
-    <row r="152" customFormat="1"/>
-    <row r="153" customFormat="1"/>
-    <row r="154" customFormat="1"/>
-    <row r="155" customFormat="1"/>
-    <row r="156" customFormat="1"/>
-    <row r="157" customFormat="1"/>
-    <row r="158" customFormat="1"/>
-    <row r="159" customFormat="1"/>
-    <row r="160" customFormat="1"/>
-    <row r="161" customFormat="1"/>
-    <row r="162" customFormat="1"/>
-    <row r="163" customFormat="1"/>
-    <row r="164" customFormat="1"/>
-    <row r="165" customFormat="1"/>
-    <row r="166" customFormat="1"/>
-    <row r="167" customFormat="1"/>
-    <row r="168" customFormat="1"/>
-    <row r="169" customFormat="1"/>
-    <row r="170" customFormat="1"/>
-    <row r="171" customFormat="1"/>
-    <row r="172" customFormat="1"/>
-    <row r="173" customFormat="1"/>
-    <row r="174" customFormat="1"/>
-    <row r="175" customFormat="1"/>
-    <row r="176" customFormat="1"/>
-    <row r="177" customFormat="1"/>
-    <row r="178" customFormat="1"/>
-    <row r="179" customFormat="1"/>
-    <row r="180" customFormat="1"/>
-    <row r="181" customFormat="1"/>
-    <row r="182" customFormat="1"/>
-    <row r="183" customFormat="1"/>
-    <row r="184" customFormat="1"/>
-    <row r="185" customFormat="1"/>
-    <row r="186" customFormat="1"/>
-    <row r="187" customFormat="1"/>
-    <row r="188" customFormat="1"/>
-    <row r="189" customFormat="1"/>
-    <row r="190" customFormat="1"/>
-    <row r="191" customFormat="1"/>
-    <row r="192" customFormat="1"/>
-    <row r="193" customFormat="1"/>
-    <row r="194" customFormat="1"/>
-    <row r="195" customFormat="1"/>
-    <row r="196" customFormat="1"/>
-    <row r="197" customFormat="1"/>
-    <row r="198" customFormat="1"/>
-    <row r="199" customFormat="1"/>
-    <row r="200" customFormat="1"/>
-    <row r="201" customFormat="1"/>
-    <row r="202" customFormat="1"/>
-    <row r="203" customFormat="1"/>
-    <row r="204" customFormat="1"/>
-    <row r="205" customFormat="1"/>
-    <row r="206" customFormat="1"/>
-    <row r="207" customFormat="1"/>
-    <row r="208" customFormat="1"/>
-    <row r="209" customFormat="1"/>
-    <row r="210" customFormat="1"/>
-    <row r="211" customFormat="1"/>
-    <row r="212" customFormat="1"/>
-    <row r="213" customFormat="1"/>
-    <row r="214" customFormat="1"/>
-    <row r="215" customFormat="1"/>
-    <row r="216" customFormat="1"/>
-    <row r="217" customFormat="1"/>
-    <row r="218" customFormat="1"/>
-    <row r="219" customFormat="1"/>
-    <row r="220" customFormat="1"/>
-    <row r="221" customFormat="1"/>
-    <row r="222" customFormat="1"/>
-    <row r="223" customFormat="1"/>
-    <row r="224" customFormat="1"/>
-    <row r="225" customFormat="1"/>
-    <row r="226" customFormat="1"/>
-    <row r="227" customFormat="1"/>
-    <row r="228" customFormat="1"/>
-    <row r="229" customFormat="1"/>
-    <row r="230" customFormat="1"/>
-    <row r="231" customFormat="1"/>
-    <row r="232" customFormat="1"/>
-    <row r="233" customFormat="1"/>
-    <row r="234" customFormat="1"/>
-    <row r="235" customFormat="1"/>
-    <row r="236" customFormat="1"/>
-    <row r="237" customFormat="1"/>
-    <row r="238" customFormat="1"/>
-    <row r="239" customFormat="1"/>
-    <row r="240" customFormat="1"/>
-    <row r="241" customFormat="1"/>
-    <row r="242" customFormat="1"/>
-    <row r="243" customFormat="1"/>
-    <row r="244" customFormat="1"/>
-    <row r="245" customFormat="1"/>
-    <row r="246" customFormat="1"/>
-    <row r="247" customFormat="1"/>
-    <row r="248" customFormat="1"/>
-    <row r="249" customFormat="1"/>
-    <row r="250" customFormat="1"/>
-    <row r="251" customFormat="1"/>
-    <row r="252" customFormat="1"/>
-    <row r="253" customFormat="1"/>
-    <row r="254" customFormat="1"/>
-    <row r="255" customFormat="1"/>
-    <row r="256" customFormat="1"/>
-    <row r="257" customFormat="1"/>
-    <row r="258" customFormat="1"/>
-    <row r="259" customFormat="1"/>
-    <row r="260" customFormat="1"/>
-    <row r="261" customFormat="1"/>
-    <row r="262" customFormat="1"/>
-    <row r="263" customFormat="1"/>
-    <row r="264" customFormat="1"/>
-    <row r="265" customFormat="1"/>
-    <row r="266" customFormat="1"/>
-    <row r="267" customFormat="1"/>
-    <row r="268" customFormat="1"/>
-    <row r="269" customFormat="1"/>
-    <row r="270" customFormat="1"/>
-    <row r="271" customFormat="1"/>
-    <row r="272" customFormat="1"/>
-    <row r="273" customFormat="1"/>
-    <row r="274" customFormat="1"/>
-    <row r="275" customFormat="1"/>
-    <row r="276" customFormat="1"/>
-    <row r="277" customFormat="1"/>
-    <row r="278" customFormat="1"/>
-    <row r="279" customFormat="1"/>
-    <row r="280" customFormat="1"/>
-    <row r="281" customFormat="1"/>
-    <row r="282" customFormat="1"/>
-    <row r="283" customFormat="1"/>
-    <row r="284" customFormat="1"/>
-    <row r="285" customFormat="1"/>
-    <row r="286" customFormat="1"/>
-    <row r="287" customFormat="1"/>
-    <row r="288" customFormat="1"/>
-    <row r="289" customFormat="1"/>
-    <row r="290" customFormat="1"/>
-    <row r="291" customFormat="1"/>
-    <row r="292" customFormat="1"/>
-    <row r="293" customFormat="1"/>
-    <row r="294" customFormat="1"/>
-    <row r="295" customFormat="1"/>
-    <row r="296" customFormat="1"/>
-    <row r="297" customFormat="1"/>
-    <row r="298" customFormat="1"/>
-    <row r="299" customFormat="1"/>
-    <row r="300" customFormat="1"/>
-    <row r="301" customFormat="1"/>
-    <row r="302" customFormat="1"/>
-    <row r="303" customFormat="1"/>
-    <row r="304" customFormat="1"/>
-    <row r="305" customFormat="1"/>
-    <row r="306" customFormat="1"/>
-    <row r="307" customFormat="1"/>
-    <row r="308" customFormat="1"/>
-    <row r="309" customFormat="1"/>
-    <row r="310" customFormat="1"/>
-    <row r="311" customFormat="1"/>
-    <row r="312" customFormat="1"/>
-    <row r="313" customFormat="1"/>
-    <row r="314" customFormat="1"/>
-    <row r="315" customFormat="1"/>
-    <row r="316" customFormat="1"/>
-    <row r="317" customFormat="1"/>
-    <row r="318" customFormat="1"/>
-    <row r="319" customFormat="1"/>
-    <row r="320" customFormat="1"/>
-    <row r="321" customFormat="1"/>
-    <row r="322" customFormat="1"/>
-    <row r="323" customFormat="1"/>
-    <row r="324" customFormat="1"/>
-    <row r="325" customFormat="1"/>
-    <row r="326" customFormat="1"/>
-    <row r="327" customFormat="1"/>
-    <row r="328" customFormat="1"/>
-    <row r="329" customFormat="1"/>
-    <row r="330" customFormat="1"/>
-    <row r="331" customFormat="1"/>
-    <row r="332" customFormat="1"/>
-    <row r="333" customFormat="1"/>
-    <row r="334" customFormat="1"/>
-    <row r="335" customFormat="1"/>
-    <row r="336" customFormat="1"/>
-    <row r="337" customFormat="1"/>
-    <row r="338" customFormat="1"/>
-    <row r="339" customFormat="1"/>
-    <row r="340" customFormat="1"/>
-    <row r="341" customFormat="1"/>
-    <row r="342" customFormat="1"/>
-    <row r="343" customFormat="1"/>
-    <row r="344" customFormat="1"/>
-    <row r="345" customFormat="1"/>
-    <row r="346" customFormat="1"/>
-    <row r="347" customFormat="1"/>
-    <row r="348" customFormat="1"/>
-    <row r="349" customFormat="1"/>
-    <row r="350" customFormat="1"/>
-    <row r="351" customFormat="1"/>
-    <row r="352" customFormat="1"/>
-    <row r="353" customFormat="1"/>
-    <row r="354" customFormat="1"/>
-    <row r="355" customFormat="1"/>
-    <row r="356" customFormat="1"/>
-    <row r="357" customFormat="1"/>
-    <row r="358" customFormat="1"/>
-    <row r="359" customFormat="1"/>
-    <row r="360" customFormat="1"/>
-    <row r="361" customFormat="1"/>
-    <row r="362" customFormat="1"/>
-    <row r="363" customFormat="1"/>
-    <row r="364" customFormat="1"/>
-    <row r="365" customFormat="1"/>
-    <row r="366" customFormat="1"/>
-    <row r="367" customFormat="1"/>
-    <row r="368" customFormat="1"/>
-    <row r="369" customFormat="1"/>
-    <row r="370" customFormat="1"/>
-    <row r="371" customFormat="1"/>
-    <row r="372" customFormat="1"/>
-    <row r="373" customFormat="1"/>
-    <row r="374" customFormat="1"/>
-    <row r="375" customFormat="1"/>
-    <row r="376" customFormat="1"/>
-    <row r="377" customFormat="1"/>
-    <row r="378" customFormat="1"/>
-    <row r="379" customFormat="1"/>
-    <row r="380" customFormat="1"/>
-    <row r="381" customFormat="1"/>
-    <row r="382" customFormat="1"/>
-    <row r="383" customFormat="1"/>
-    <row r="384" customFormat="1"/>
-    <row r="385" customFormat="1"/>
-    <row r="386" customFormat="1"/>
-    <row r="387" customFormat="1"/>
-    <row r="388" customFormat="1"/>
-    <row r="389" customFormat="1"/>
-    <row r="390" customFormat="1"/>
-    <row r="391" customFormat="1"/>
-    <row r="392" customFormat="1"/>
-    <row r="393" customFormat="1"/>
-    <row r="394" customFormat="1"/>
-    <row r="395" customFormat="1"/>
-    <row r="396" customFormat="1"/>
-    <row r="397" customFormat="1"/>
-    <row r="398" customFormat="1"/>
-    <row r="399" customFormat="1"/>
-    <row r="400" customFormat="1"/>
-    <row r="401" customFormat="1"/>
-    <row r="402" customFormat="1"/>
-    <row r="403" customFormat="1"/>
-    <row r="404" customFormat="1"/>
-    <row r="405" customFormat="1"/>
-    <row r="406" customFormat="1"/>
-    <row r="407" customFormat="1"/>
-    <row r="408" customFormat="1"/>
-    <row r="409" customFormat="1"/>
-    <row r="410" customFormat="1"/>
-    <row r="411" customFormat="1"/>
-    <row r="412" customFormat="1"/>
-    <row r="413" customFormat="1"/>
-    <row r="414" customFormat="1"/>
-    <row r="415" customFormat="1"/>
-    <row r="416" customFormat="1"/>
-    <row r="417" customFormat="1"/>
-    <row r="418" customFormat="1"/>
-    <row r="419" customFormat="1"/>
-    <row r="420" customFormat="1"/>
-    <row r="421" customFormat="1"/>
-    <row r="422" customFormat="1"/>
-    <row r="423" customFormat="1"/>
-    <row r="424" customFormat="1"/>
-    <row r="425" customFormat="1"/>
-    <row r="426" customFormat="1"/>
-    <row r="427" customFormat="1"/>
-    <row r="428" customFormat="1"/>
-    <row r="429" customFormat="1"/>
-    <row r="430" customFormat="1"/>
-    <row r="431" customFormat="1"/>
-    <row r="432" customFormat="1"/>
-    <row r="433" customFormat="1"/>
-    <row r="434" customFormat="1"/>
-    <row r="435" customFormat="1"/>
-    <row r="436" customFormat="1"/>
-    <row r="437" customFormat="1"/>
-    <row r="438" customFormat="1"/>
-    <row r="439" customFormat="1"/>
-    <row r="440" customFormat="1"/>
-    <row r="441" customFormat="1"/>
-    <row r="442" customFormat="1"/>
-    <row r="443" customFormat="1"/>
-    <row r="444" customFormat="1"/>
-    <row r="445" customFormat="1"/>
-    <row r="446" customFormat="1"/>
-    <row r="447" customFormat="1"/>
-    <row r="448" customFormat="1"/>
-    <row r="449" customFormat="1"/>
-    <row r="450" customFormat="1"/>
-    <row r="451" customFormat="1"/>
-    <row r="452" customFormat="1"/>
-    <row r="453" customFormat="1"/>
-    <row r="454" customFormat="1"/>
-    <row r="455" customFormat="1"/>
-    <row r="456" customFormat="1"/>
-    <row r="457" customFormat="1"/>
-    <row r="458" customFormat="1"/>
-    <row r="459" customFormat="1"/>
-    <row r="460" customFormat="1"/>
-    <row r="461" customFormat="1"/>
-    <row r="462" customFormat="1"/>
-    <row r="463" customFormat="1"/>
-    <row r="464" customFormat="1"/>
-    <row r="465" customFormat="1"/>
-    <row r="466" customFormat="1"/>
-    <row r="467" customFormat="1"/>
-    <row r="468" customFormat="1"/>
-    <row r="469" customFormat="1"/>
-    <row r="470" customFormat="1"/>
-    <row r="471" customFormat="1"/>
-    <row r="472" customFormat="1"/>
-    <row r="473" customFormat="1"/>
-    <row r="474" customFormat="1"/>
-    <row r="475" customFormat="1"/>
-    <row r="476" customFormat="1"/>
-    <row r="477" customFormat="1"/>
-    <row r="478" customFormat="1"/>
-    <row r="479" customFormat="1"/>
-    <row r="480" customFormat="1"/>
-    <row r="481" customFormat="1"/>
-    <row r="482" customFormat="1"/>
-    <row r="483" customFormat="1"/>
-    <row r="484" customFormat="1"/>
-    <row r="485" customFormat="1"/>
-    <row r="486" customFormat="1"/>
-    <row r="487" customFormat="1"/>
-    <row r="488" customFormat="1"/>
-    <row r="489" customFormat="1"/>
-    <row r="490" customFormat="1"/>
-    <row r="491" customFormat="1"/>
-    <row r="492" customFormat="1"/>
-    <row r="493" customFormat="1"/>
-    <row r="494" customFormat="1"/>
-    <row r="495" customFormat="1"/>
-    <row r="496" customFormat="1"/>
-    <row r="497" customFormat="1"/>
-    <row r="498" customFormat="1"/>
-    <row r="499" customFormat="1"/>
-    <row r="500" customFormat="1"/>
-    <row r="501" customFormat="1"/>
-    <row r="502" customFormat="1"/>
-    <row r="503" customFormat="1"/>
-    <row r="504" customFormat="1"/>
-    <row r="505" customFormat="1"/>
-    <row r="506" customFormat="1"/>
-    <row r="507" customFormat="1"/>
-    <row r="508" customFormat="1"/>
-    <row r="509" customFormat="1"/>
-    <row r="510" customFormat="1"/>
-    <row r="511" customFormat="1"/>
-    <row r="512" customFormat="1"/>
-    <row r="513" customFormat="1"/>
-    <row r="514" customFormat="1"/>
-    <row r="515" customFormat="1"/>
-    <row r="516" customFormat="1"/>
-    <row r="517" customFormat="1"/>
-    <row r="518" customFormat="1"/>
-    <row r="519" customFormat="1"/>
-    <row r="520" customFormat="1"/>
-    <row r="521" customFormat="1"/>
-    <row r="522" customFormat="1"/>
-    <row r="523" customFormat="1"/>
-    <row r="524" customFormat="1"/>
-    <row r="525" customFormat="1"/>
-    <row r="526" customFormat="1"/>
-    <row r="527" customFormat="1"/>
-    <row r="528" customFormat="1"/>
-    <row r="529" customFormat="1"/>
-    <row r="530" customFormat="1"/>
-    <row r="531" customFormat="1"/>
-    <row r="532" customFormat="1"/>
-    <row r="533" customFormat="1"/>
-    <row r="534" customFormat="1"/>
-    <row r="535" customFormat="1"/>
-    <row r="536" customFormat="1"/>
-    <row r="537" customFormat="1"/>
-    <row r="538" customFormat="1"/>
-    <row r="539" customFormat="1"/>
-    <row r="540" customFormat="1"/>
-    <row r="541" customFormat="1"/>
-    <row r="542" customFormat="1"/>
-    <row r="543" customFormat="1"/>
-    <row r="544" customFormat="1"/>
-    <row r="545" customFormat="1"/>
-    <row r="546" customFormat="1"/>
-    <row r="547" customFormat="1"/>
-    <row r="548" customFormat="1"/>
-    <row r="549" customFormat="1"/>
-    <row r="550" customFormat="1"/>
-    <row r="551" customFormat="1"/>
-    <row r="552" customFormat="1"/>
-    <row r="553" customFormat="1"/>
-    <row r="554" customFormat="1"/>
-    <row r="555" customFormat="1"/>
-    <row r="556" customFormat="1"/>
-    <row r="557" customFormat="1"/>
-    <row r="558" customFormat="1"/>
-    <row r="559" customFormat="1"/>
-    <row r="560" customFormat="1"/>
-    <row r="561" customFormat="1"/>
-    <row r="562" customFormat="1"/>
-    <row r="563" customFormat="1"/>
-    <row r="564" customFormat="1"/>
-    <row r="565" customFormat="1"/>
-    <row r="566" customFormat="1"/>
-    <row r="567" customFormat="1"/>
-    <row r="568" customFormat="1"/>
-    <row r="569" customFormat="1"/>
-    <row r="570" customFormat="1"/>
-    <row r="571" customFormat="1"/>
-    <row r="572" customFormat="1"/>
-    <row r="573" customFormat="1"/>
-    <row r="574" customFormat="1"/>
-    <row r="575" customFormat="1"/>
-    <row r="576" customFormat="1"/>
-    <row r="577" customFormat="1"/>
-    <row r="578" customFormat="1"/>
-    <row r="579" customFormat="1"/>
-    <row r="580" customFormat="1"/>
-    <row r="581" customFormat="1"/>
-    <row r="582" customFormat="1"/>
-    <row r="583" customFormat="1"/>
-    <row r="584" customFormat="1"/>
-    <row r="585" customFormat="1"/>
-    <row r="586" customFormat="1"/>
-    <row r="587" customFormat="1"/>
-    <row r="588" customFormat="1"/>
-    <row r="589" customFormat="1"/>
-    <row r="590" customFormat="1"/>
-    <row r="591" customFormat="1"/>
-    <row r="592" customFormat="1"/>
-    <row r="593" customFormat="1"/>
-    <row r="594" customFormat="1"/>
-    <row r="595" customFormat="1"/>
-    <row r="596" customFormat="1"/>
-    <row r="597" customFormat="1"/>
-    <row r="598" customFormat="1"/>
-    <row r="599" customFormat="1"/>
-    <row r="600" customFormat="1"/>
-    <row r="601" customFormat="1"/>
-    <row r="602" customFormat="1"/>
-    <row r="603" customFormat="1"/>
-    <row r="604" customFormat="1"/>
-    <row r="605" customFormat="1"/>
-    <row r="606" customFormat="1"/>
-    <row r="607" customFormat="1"/>
-    <row r="608" customFormat="1"/>
-    <row r="609" customFormat="1"/>
-    <row r="610" customFormat="1"/>
-    <row r="611" customFormat="1"/>
-    <row r="612" customFormat="1"/>
-    <row r="613" customFormat="1"/>
-    <row r="614" customFormat="1"/>
-    <row r="615" customFormat="1"/>
-    <row r="616" customFormat="1"/>
-    <row r="617" customFormat="1"/>
-    <row r="618" customFormat="1"/>
-    <row r="619" customFormat="1"/>
-    <row r="620" customFormat="1"/>
-    <row r="621" customFormat="1"/>
-    <row r="622" customFormat="1"/>
-    <row r="623" customFormat="1"/>
-    <row r="624" customFormat="1"/>
-    <row r="625" customFormat="1"/>
-    <row r="626" customFormat="1"/>
-    <row r="627" customFormat="1"/>
-    <row r="628" customFormat="1"/>
-    <row r="629" customFormat="1"/>
-    <row r="630" customFormat="1"/>
-    <row r="631" customFormat="1"/>
-    <row r="632" customFormat="1"/>
-    <row r="633" customFormat="1"/>
-    <row r="634" customFormat="1"/>
-    <row r="635" customFormat="1"/>
-    <row r="636" customFormat="1"/>
-    <row r="637" customFormat="1"/>
-    <row r="638" customFormat="1"/>
-    <row r="639" customFormat="1"/>
-    <row r="640" customFormat="1"/>
-    <row r="641" customFormat="1"/>
-    <row r="642" customFormat="1"/>
-    <row r="643" customFormat="1"/>
-    <row r="644" customFormat="1"/>
-    <row r="645" customFormat="1"/>
-    <row r="646" customFormat="1"/>
-    <row r="647" customFormat="1"/>
-    <row r="648" customFormat="1"/>
-    <row r="649" customFormat="1"/>
-    <row r="650" customFormat="1"/>
-    <row r="651" customFormat="1"/>
-    <row r="652" customFormat="1"/>
-    <row r="653" customFormat="1"/>
-    <row r="654" customFormat="1"/>
-    <row r="655" customFormat="1"/>
-    <row r="656" customFormat="1"/>
-    <row r="657" customFormat="1"/>
-    <row r="658" customFormat="1"/>
-    <row r="659" customFormat="1"/>
-    <row r="660" customFormat="1"/>
-    <row r="661" customFormat="1"/>
-    <row r="662" customFormat="1"/>
-    <row r="663" customFormat="1"/>
-    <row r="664" customFormat="1"/>
-    <row r="665" customFormat="1"/>
-    <row r="666" customFormat="1"/>
-    <row r="667" customFormat="1"/>
-    <row r="668" customFormat="1"/>
-    <row r="669" customFormat="1"/>
-    <row r="670" customFormat="1"/>
-    <row r="671" customFormat="1"/>
-    <row r="672" customFormat="1"/>
-    <row r="673" customFormat="1"/>
-    <row r="674" customFormat="1"/>
-    <row r="675" customFormat="1"/>
-    <row r="676" customFormat="1"/>
-    <row r="677" customFormat="1"/>
-    <row r="678" customFormat="1"/>
-    <row r="679" customFormat="1"/>
-    <row r="680" customFormat="1"/>
-    <row r="681" customFormat="1"/>
-    <row r="682" customFormat="1"/>
-    <row r="683" customFormat="1"/>
-    <row r="684" customFormat="1"/>
-    <row r="685" customFormat="1"/>
-    <row r="686" customFormat="1"/>
-    <row r="687" customFormat="1"/>
-    <row r="688" customFormat="1"/>
-    <row r="689" customFormat="1"/>
-    <row r="690" customFormat="1"/>
-    <row r="691" customFormat="1"/>
-    <row r="692" customFormat="1"/>
-    <row r="693" customFormat="1"/>
-    <row r="694" customFormat="1"/>
-    <row r="695" customFormat="1"/>
-    <row r="696" customFormat="1"/>
-    <row r="697" customFormat="1"/>
-    <row r="698" customFormat="1"/>
-    <row r="699" customFormat="1"/>
-    <row r="700" customFormat="1"/>
-    <row r="701" customFormat="1"/>
-    <row r="702" customFormat="1"/>
-    <row r="703" customFormat="1"/>
-    <row r="704" customFormat="1"/>
-    <row r="705" customFormat="1"/>
-    <row r="706" customFormat="1"/>
-    <row r="707" customFormat="1"/>
-    <row r="708" customFormat="1"/>
-    <row r="709" customFormat="1"/>
-    <row r="710" customFormat="1"/>
-    <row r="711" customFormat="1"/>
-    <row r="712" customFormat="1"/>
-    <row r="713" customFormat="1"/>
-    <row r="714" customFormat="1"/>
-    <row r="715" customFormat="1"/>
-    <row r="716" customFormat="1"/>
-    <row r="717" customFormat="1"/>
-    <row r="718" customFormat="1"/>
-    <row r="719" customFormat="1"/>
-    <row r="720" customFormat="1"/>
-    <row r="721" customFormat="1"/>
-    <row r="722" customFormat="1"/>
-    <row r="723" customFormat="1"/>
-    <row r="724" customFormat="1"/>
-    <row r="725" customFormat="1"/>
-    <row r="726" customFormat="1"/>
-    <row r="727" customFormat="1"/>
-    <row r="728" customFormat="1"/>
-    <row r="729" customFormat="1"/>
-    <row r="730" customFormat="1"/>
-    <row r="731" customFormat="1"/>
-    <row r="732" customFormat="1"/>
-    <row r="733" customFormat="1"/>
-    <row r="734" customFormat="1"/>
-    <row r="735" customFormat="1"/>
-    <row r="736" customFormat="1"/>
-    <row r="737" customFormat="1"/>
-    <row r="738" customFormat="1"/>
-    <row r="739" customFormat="1"/>
-    <row r="740" customFormat="1"/>
-    <row r="741" customFormat="1"/>
-    <row r="742" customFormat="1"/>
-    <row r="743" customFormat="1"/>
-    <row r="744" customFormat="1"/>
-    <row r="745" customFormat="1"/>
-    <row r="746" customFormat="1"/>
-    <row r="747" customFormat="1"/>
-    <row r="748" customFormat="1"/>
-    <row r="749" customFormat="1"/>
-    <row r="750" customFormat="1"/>
-    <row r="751" customFormat="1"/>
-    <row r="752" customFormat="1"/>
-    <row r="753" customFormat="1"/>
-    <row r="754" customFormat="1"/>
-    <row r="755" customFormat="1"/>
-    <row r="756" customFormat="1"/>
-    <row r="757" customFormat="1"/>
-    <row r="758" customFormat="1"/>
-    <row r="759" customFormat="1"/>
-    <row r="760" customFormat="1"/>
-    <row r="761" customFormat="1"/>
-    <row r="762" customFormat="1"/>
-    <row r="763" customFormat="1"/>
-    <row r="764" customFormat="1"/>
-    <row r="765" customFormat="1"/>
-    <row r="766" customFormat="1"/>
-    <row r="767" customFormat="1"/>
-    <row r="768" customFormat="1"/>
-    <row r="769" customFormat="1"/>
-    <row r="770" customFormat="1"/>
-    <row r="771" customFormat="1"/>
-    <row r="772" customFormat="1"/>
-    <row r="773" customFormat="1"/>
-    <row r="774" customFormat="1"/>
-    <row r="775" customFormat="1"/>
-    <row r="776" customFormat="1"/>
-    <row r="777" customFormat="1"/>
-    <row r="778" customFormat="1"/>
-    <row r="779" customFormat="1"/>
-    <row r="780" customFormat="1"/>
-    <row r="781" customFormat="1"/>
-    <row r="782" customFormat="1"/>
-    <row r="783" customFormat="1"/>
-    <row r="784" customFormat="1"/>
-    <row r="785" customFormat="1"/>
-    <row r="786" customFormat="1"/>
-    <row r="787" customFormat="1"/>
-    <row r="788" customFormat="1"/>
-    <row r="789" customFormat="1"/>
-    <row r="790" customFormat="1"/>
-    <row r="791" customFormat="1"/>
-    <row r="792" customFormat="1"/>
-    <row r="793" customFormat="1"/>
-    <row r="794" customFormat="1"/>
-    <row r="795" customFormat="1"/>
-    <row r="796" customFormat="1"/>
-    <row r="797" customFormat="1"/>
-    <row r="798" customFormat="1"/>
-    <row r="799" customFormat="1"/>
-    <row r="800" customFormat="1"/>
-    <row r="801" customFormat="1"/>
-    <row r="802" customFormat="1"/>
-    <row r="803" customFormat="1"/>
-    <row r="804" customFormat="1"/>
-    <row r="805" customFormat="1"/>
-    <row r="806" customFormat="1"/>
-    <row r="807" customFormat="1"/>
-    <row r="808" customFormat="1"/>
-    <row r="809" customFormat="1"/>
-    <row r="810" customFormat="1"/>
-    <row r="811" customFormat="1"/>
-    <row r="812" customFormat="1"/>
-    <row r="813" customFormat="1"/>
-    <row r="814" customFormat="1"/>
-    <row r="815" customFormat="1"/>
-    <row r="816" customFormat="1"/>
-    <row r="817" customFormat="1"/>
-    <row r="818" customFormat="1"/>
-    <row r="819" customFormat="1"/>
-    <row r="820" customFormat="1"/>
-    <row r="821" customFormat="1"/>
-    <row r="822" customFormat="1"/>
-    <row r="823" customFormat="1"/>
-    <row r="824" customFormat="1"/>
-    <row r="825" customFormat="1"/>
-    <row r="826" customFormat="1"/>
-    <row r="827" customFormat="1"/>
-    <row r="828" customFormat="1"/>
-    <row r="829" customFormat="1"/>
-    <row r="830" customFormat="1"/>
-    <row r="831" customFormat="1"/>
-    <row r="832" customFormat="1"/>
-    <row r="833" customFormat="1"/>
-    <row r="834" customFormat="1"/>
-    <row r="835" customFormat="1"/>
-    <row r="836" customFormat="1"/>
-    <row r="837" customFormat="1"/>
-    <row r="838" customFormat="1"/>
-    <row r="839" customFormat="1"/>
-    <row r="840" customFormat="1"/>
-    <row r="841" customFormat="1"/>
-    <row r="842" customFormat="1"/>
-    <row r="843" customFormat="1"/>
-    <row r="844" customFormat="1"/>
-    <row r="845" customFormat="1"/>
-    <row r="846" customFormat="1"/>
-    <row r="847" customFormat="1"/>
-    <row r="848" customFormat="1"/>
-    <row r="849" customFormat="1"/>
-    <row r="850" customFormat="1"/>
-    <row r="851" customFormat="1"/>
-    <row r="852" customFormat="1"/>
-    <row r="853" customFormat="1"/>
-    <row r="854" customFormat="1"/>
-    <row r="855" customFormat="1"/>
-    <row r="856" customFormat="1"/>
-    <row r="857" customFormat="1"/>
-    <row r="858" customFormat="1"/>
-    <row r="859" customFormat="1"/>
-    <row r="860" customFormat="1"/>
-    <row r="861" customFormat="1"/>
-    <row r="862" customFormat="1"/>
-    <row r="863" customFormat="1"/>
-    <row r="864" customFormat="1"/>
-    <row r="865" customFormat="1"/>
-    <row r="866" customFormat="1"/>
-    <row r="867" customFormat="1"/>
-    <row r="868" customFormat="1"/>
-    <row r="869" customFormat="1"/>
-    <row r="870" customFormat="1"/>
-    <row r="871" customFormat="1"/>
-    <row r="872" customFormat="1"/>
-    <row r="873" customFormat="1"/>
-    <row r="874" customFormat="1"/>
-    <row r="875" customFormat="1"/>
-    <row r="876" customFormat="1"/>
-    <row r="877" customFormat="1"/>
-    <row r="878" customFormat="1"/>
-    <row r="879" customFormat="1"/>
-    <row r="880" customFormat="1"/>
-    <row r="881" customFormat="1"/>
-    <row r="882" customFormat="1"/>
-    <row r="883" customFormat="1"/>
-    <row r="884" customFormat="1"/>
-    <row r="885" customFormat="1"/>
-    <row r="886" customFormat="1"/>
-    <row r="887" customFormat="1"/>
-    <row r="888" customFormat="1"/>
-    <row r="889" customFormat="1"/>
-    <row r="890" customFormat="1"/>
-    <row r="891" customFormat="1"/>
-    <row r="892" customFormat="1"/>
-    <row r="893" customFormat="1"/>
-    <row r="894" customFormat="1"/>
-    <row r="895" customFormat="1"/>
-    <row r="896" customFormat="1"/>
-    <row r="897" customFormat="1"/>
-    <row r="898" customFormat="1"/>
-    <row r="899" customFormat="1"/>
-    <row r="900" customFormat="1"/>
-    <row r="901" customFormat="1"/>
-    <row r="902" customFormat="1"/>
-    <row r="903" customFormat="1"/>
-    <row r="904" customFormat="1"/>
-    <row r="905" customFormat="1"/>
-    <row r="906" customFormat="1"/>
-    <row r="907" customFormat="1"/>
-    <row r="908" customFormat="1"/>
-    <row r="909" customFormat="1"/>
-    <row r="910" customFormat="1"/>
-    <row r="911" customFormat="1"/>
-    <row r="912" customFormat="1"/>
-    <row r="913" customFormat="1"/>
-    <row r="914" customFormat="1"/>
-    <row r="915" customFormat="1"/>
-    <row r="916" customFormat="1"/>
-    <row r="917" customFormat="1"/>
-    <row r="918" customFormat="1"/>
-    <row r="919" customFormat="1"/>
-    <row r="920" customFormat="1"/>
-    <row r="921" customFormat="1"/>
-    <row r="922" customFormat="1"/>
-    <row r="923" customFormat="1"/>
-    <row r="924" customFormat="1"/>
-    <row r="925" customFormat="1"/>
-    <row r="926" customFormat="1"/>
-    <row r="927" customFormat="1"/>
-    <row r="928" customFormat="1"/>
-    <row r="929" customFormat="1"/>
-    <row r="930" customFormat="1"/>
-    <row r="931" customFormat="1"/>
-    <row r="932" customFormat="1"/>
-    <row r="933" customFormat="1"/>
-    <row r="934" customFormat="1"/>
-    <row r="935" customFormat="1"/>
-    <row r="936" customFormat="1"/>
-    <row r="937" customFormat="1"/>
-    <row r="938" customFormat="1"/>
-    <row r="939" customFormat="1"/>
-    <row r="940" customFormat="1"/>
-    <row r="941" customFormat="1"/>
-    <row r="942" customFormat="1"/>
-    <row r="943" customFormat="1"/>
-    <row r="944" customFormat="1"/>
-    <row r="945" customFormat="1"/>
-    <row r="946" customFormat="1"/>
-    <row r="947" customFormat="1"/>
-    <row r="948" customFormat="1"/>
-    <row r="949" customFormat="1"/>
-    <row r="950" customFormat="1"/>
-    <row r="951" customFormat="1"/>
-    <row r="952" customFormat="1"/>
-    <row r="953" customFormat="1"/>
-    <row r="954" customFormat="1"/>
-    <row r="955" customFormat="1"/>
-    <row r="956" customFormat="1"/>
-    <row r="957" customFormat="1"/>
-    <row r="958" customFormat="1"/>
-    <row r="959" customFormat="1"/>
-    <row r="960" customFormat="1"/>
-    <row r="961" customFormat="1"/>
-    <row r="962" customFormat="1"/>
-    <row r="963" customFormat="1"/>
-    <row r="964" customFormat="1"/>
-    <row r="965" customFormat="1"/>
-    <row r="966" customFormat="1"/>
-    <row r="967" customFormat="1"/>
-    <row r="968" customFormat="1"/>
-    <row r="969" customFormat="1"/>
-    <row r="970" customFormat="1"/>
-    <row r="971" customFormat="1"/>
-    <row r="972" customFormat="1"/>
-    <row r="973" customFormat="1"/>
-    <row r="974" customFormat="1"/>
-    <row r="975" customFormat="1"/>
-    <row r="976" customFormat="1"/>
-    <row r="977" customFormat="1"/>
-    <row r="978" customFormat="1"/>
-    <row r="979" customFormat="1"/>
-    <row r="980" customFormat="1"/>
-    <row r="981" customFormat="1"/>
-    <row r="982" customFormat="1"/>
-    <row r="983" customFormat="1"/>
-    <row r="984" customFormat="1"/>
-    <row r="985" customFormat="1"/>
-    <row r="986" customFormat="1"/>
-    <row r="987" customFormat="1"/>
-    <row r="988" customFormat="1"/>
-    <row r="989" customFormat="1"/>
-    <row r="990" customFormat="1"/>
-    <row r="991" customFormat="1"/>
-    <row r="992" customFormat="1"/>
-    <row r="993" customFormat="1"/>
-    <row r="994" customFormat="1"/>
-    <row r="995" customFormat="1"/>
-    <row r="996" customFormat="1"/>
-    <row r="997" customFormat="1"/>
-    <row r="998" customFormat="1"/>
-    <row r="999" customFormat="1"/>
-    <row r="1000" customFormat="1"/>
-    <row r="1001" customFormat="1"/>
-    <row r="1002" customFormat="1"/>
-    <row r="1003" customFormat="1"/>
-    <row r="1004" customFormat="1"/>
-    <row r="1005" customFormat="1"/>
-    <row r="1006" customFormat="1"/>
-    <row r="1007" customFormat="1"/>
-    <row r="1008" customFormat="1"/>
-    <row r="1009" customFormat="1"/>
-    <row r="1010" customFormat="1"/>
-    <row r="1011" customFormat="1"/>
-    <row r="1012" customFormat="1"/>
-    <row r="1013" customFormat="1"/>
-    <row r="1014" customFormat="1"/>
-    <row r="1015" customFormat="1"/>
-    <row r="1016" customFormat="1"/>
-    <row r="1017" customFormat="1"/>
-    <row r="1018" customFormat="1"/>
-    <row r="1019" customFormat="1"/>
-    <row r="1020" customFormat="1"/>
-    <row r="1021" customFormat="1"/>
-    <row r="1022" customFormat="1"/>
-    <row r="1023" customFormat="1"/>
-    <row r="1024" customFormat="1"/>
-    <row r="1025" customFormat="1"/>
-    <row r="1026" customFormat="1"/>
-    <row r="1027" customFormat="1"/>
-    <row r="1028" customFormat="1"/>
-    <row r="1029" customFormat="1"/>
-    <row r="1030" customFormat="1"/>
-    <row r="1031" customFormat="1"/>
-    <row r="1032" customFormat="1"/>
-    <row r="1033" customFormat="1"/>
-    <row r="1034" customFormat="1"/>
-    <row r="1035" customFormat="1"/>
-    <row r="1036" customFormat="1"/>
-    <row r="1037" customFormat="1"/>
-    <row r="1038" customFormat="1"/>
-    <row r="1039" customFormat="1"/>
-    <row r="1040" customFormat="1"/>
-    <row r="1041" customFormat="1"/>
-    <row r="1042" customFormat="1"/>
-    <row r="1043" customFormat="1"/>
-    <row r="1044" customFormat="1"/>
-    <row r="1045" customFormat="1"/>
-    <row r="1046" customFormat="1"/>
-    <row r="1047" customFormat="1"/>
-    <row r="1048" customFormat="1"/>
-    <row r="1049" customFormat="1"/>
-    <row r="1050" customFormat="1"/>
-    <row r="1051" customFormat="1"/>
-    <row r="1052" customFormat="1"/>
-    <row r="1053" customFormat="1"/>
-    <row r="1054" customFormat="1"/>
-    <row r="1055" customFormat="1"/>
-    <row r="1056" customFormat="1"/>
-    <row r="1057" customFormat="1"/>
-    <row r="1058" customFormat="1"/>
-    <row r="1059" customFormat="1"/>
-    <row r="1060" customFormat="1"/>
-    <row r="1061" customFormat="1"/>
-    <row r="1062" customFormat="1"/>
-    <row r="1063" customFormat="1"/>
-    <row r="1064" customFormat="1"/>
-    <row r="1065" customFormat="1"/>
-    <row r="1066" customFormat="1"/>
-    <row r="1067" customFormat="1"/>
-    <row r="1068" customFormat="1"/>
-    <row r="1069" customFormat="1"/>
-    <row r="1070" customFormat="1"/>
-    <row r="1071" customFormat="1"/>
-    <row r="1072" customFormat="1"/>
-    <row r="1073" customFormat="1"/>
-    <row r="1074" customFormat="1"/>
-    <row r="1075" customFormat="1"/>
-    <row r="1076" customFormat="1"/>
-    <row r="1077" customFormat="1"/>
-    <row r="1078" customFormat="1"/>
-    <row r="1079" customFormat="1"/>
-    <row r="1080" customFormat="1"/>
-    <row r="1081" customFormat="1"/>
-    <row r="1082" customFormat="1"/>
-    <row r="1083" customFormat="1"/>
-    <row r="1084" customFormat="1"/>
-    <row r="1085" customFormat="1"/>
-    <row r="1086" customFormat="1"/>
-    <row r="1087" customFormat="1"/>
-    <row r="1088" customFormat="1"/>
-    <row r="1089" customFormat="1"/>
-    <row r="1090" customFormat="1"/>
-    <row r="1091" customFormat="1"/>
-    <row r="1092" customFormat="1"/>
-    <row r="1093" customFormat="1"/>
-    <row r="1094" customFormat="1"/>
-    <row r="1095" customFormat="1"/>
-    <row r="1096" customFormat="1"/>
-    <row r="1097" customFormat="1"/>
-    <row r="1098" customFormat="1"/>
-    <row r="1099" customFormat="1"/>
-    <row r="1100" customFormat="1"/>
-    <row r="1101" customFormat="1"/>
-    <row r="1102" customFormat="1"/>
-    <row r="1103" customFormat="1"/>
-    <row r="1104" customFormat="1"/>
-    <row r="1105" customFormat="1"/>
-    <row r="1106" customFormat="1"/>
-    <row r="1107" customFormat="1"/>
-    <row r="1108" customFormat="1"/>
-    <row r="1109" customFormat="1"/>
-    <row r="1110" customFormat="1"/>
-    <row r="1111" customFormat="1"/>
-    <row r="1112" customFormat="1"/>
-    <row r="1113" customFormat="1"/>
-    <row r="1114" customFormat="1"/>
-    <row r="1115" customFormat="1"/>
-    <row r="1116" customFormat="1"/>
-    <row r="1117" customFormat="1"/>
-    <row r="1118" customFormat="1"/>
-    <row r="1119" customFormat="1"/>
-    <row r="1120" customFormat="1"/>
-    <row r="1121" customFormat="1"/>
-    <row r="1122" customFormat="1"/>
-    <row r="1123" customFormat="1"/>
-    <row r="1124" customFormat="1"/>
-    <row r="1125" customFormat="1"/>
-    <row r="1126" customFormat="1"/>
-    <row r="1127" customFormat="1"/>
-    <row r="1128" customFormat="1"/>
-    <row r="1129" customFormat="1"/>
-    <row r="1130" customFormat="1"/>
-    <row r="1131" customFormat="1"/>
-    <row r="1132" customFormat="1"/>
-    <row r="1133" customFormat="1"/>
-    <row r="1134" customFormat="1"/>
-    <row r="1135" customFormat="1"/>
-    <row r="1136" customFormat="1"/>
-    <row r="1137" customFormat="1"/>
-    <row r="1138" customFormat="1"/>
-    <row r="1139" customFormat="1"/>
-    <row r="1140" customFormat="1"/>
-    <row r="1141" customFormat="1"/>
-    <row r="1142" customFormat="1"/>
-    <row r="1143" customFormat="1"/>
-    <row r="1144" customFormat="1"/>
-    <row r="1145" customFormat="1"/>
-    <row r="1146" customFormat="1"/>
-    <row r="1147" customFormat="1"/>
-    <row r="1148" customFormat="1"/>
-    <row r="1149" customFormat="1"/>
-    <row r="1150" customFormat="1"/>
-    <row r="1151" customFormat="1"/>
-    <row r="1152" customFormat="1"/>
-    <row r="1153" customFormat="1"/>
-    <row r="1154" customFormat="1"/>
-    <row r="1155" customFormat="1"/>
-    <row r="1156" customFormat="1"/>
-    <row r="1157" customFormat="1"/>
-    <row r="1158" customFormat="1"/>
-    <row r="1159" customFormat="1"/>
-    <row r="1160" customFormat="1"/>
-    <row r="1161" customFormat="1"/>
-    <row r="1162" customFormat="1"/>
-    <row r="1163" customFormat="1"/>
-    <row r="1164" customFormat="1"/>
-    <row r="1165" customFormat="1"/>
-    <row r="1166" customFormat="1"/>
-    <row r="1167" customFormat="1"/>
-    <row r="1168" customFormat="1"/>
-    <row r="1169" customFormat="1"/>
-    <row r="1170" customFormat="1"/>
-    <row r="1171" customFormat="1"/>
-    <row r="1172" customFormat="1"/>
-    <row r="1173" customFormat="1"/>
-    <row r="1174" customFormat="1"/>
-    <row r="1175" customFormat="1"/>
-    <row r="1176" customFormat="1"/>
-    <row r="1177" customFormat="1"/>
-    <row r="1178" customFormat="1"/>
-    <row r="1179" customFormat="1"/>
-    <row r="1180" customFormat="1"/>
-    <row r="1181" customFormat="1"/>
-    <row r="1182" customFormat="1"/>
-    <row r="1183" customFormat="1"/>
-    <row r="1184" customFormat="1"/>
-    <row r="1185" customFormat="1"/>
-    <row r="1186" customFormat="1"/>
-    <row r="1187" customFormat="1"/>
-    <row r="1188" customFormat="1"/>
-    <row r="1189" customFormat="1"/>
-    <row r="1190" customFormat="1"/>
-    <row r="1191" customFormat="1"/>
-    <row r="1192" customFormat="1"/>
-    <row r="1193" customFormat="1"/>
-    <row r="1194" customFormat="1"/>
-    <row r="1195" customFormat="1"/>
-    <row r="1196" customFormat="1"/>
-    <row r="1197" customFormat="1"/>
-    <row r="1198" customFormat="1"/>
-    <row r="1199" customFormat="1"/>
-    <row r="1200" customFormat="1"/>
-    <row r="1201" customFormat="1"/>
-    <row r="1202" customFormat="1"/>
-    <row r="1203" customFormat="1"/>
-    <row r="1204" customFormat="1"/>
-    <row r="1205" customFormat="1"/>
-    <row r="1206" customFormat="1"/>
-    <row r="1207" customFormat="1"/>
-    <row r="1208" customFormat="1"/>
-    <row r="1209" customFormat="1"/>
-    <row r="1210" customFormat="1"/>
-    <row r="1211" customFormat="1"/>
-    <row r="1212" customFormat="1"/>
-    <row r="1213" customFormat="1"/>
-    <row r="1214" customFormat="1"/>
-    <row r="1215" customFormat="1"/>
-    <row r="1216" customFormat="1"/>
-    <row r="1217" customFormat="1"/>
-    <row r="1218" customFormat="1"/>
-    <row r="1219" customFormat="1"/>
-    <row r="1220" customFormat="1"/>
-    <row r="1221" customFormat="1"/>
-    <row r="1222" customFormat="1"/>
-    <row r="1223" customFormat="1"/>
-    <row r="1224" customFormat="1"/>
-    <row r="1225" customFormat="1"/>
-    <row r="1226" customFormat="1"/>
-    <row r="1227" customFormat="1"/>
-    <row r="1228" customFormat="1"/>
-    <row r="1229" customFormat="1"/>
-    <row r="1230" customFormat="1"/>
-    <row r="1231" customFormat="1"/>
-    <row r="1232" customFormat="1"/>
-    <row r="1233" customFormat="1"/>
-    <row r="1234" customFormat="1"/>
-    <row r="1235" customFormat="1"/>
-    <row r="1236" customFormat="1"/>
-    <row r="1237" customFormat="1"/>
-    <row r="1238" customFormat="1"/>
-    <row r="1239" customFormat="1"/>
-    <row r="1240" customFormat="1"/>
-    <row r="1241" customFormat="1"/>
-    <row r="1242" customFormat="1"/>
-    <row r="1243" customFormat="1"/>
-    <row r="1244" customFormat="1"/>
-    <row r="1245" customFormat="1"/>
-    <row r="1246" customFormat="1"/>
-    <row r="1247" customFormat="1"/>
-    <row r="1248" customFormat="1"/>
-    <row r="1249" customFormat="1"/>
-    <row r="1250" customFormat="1"/>
-    <row r="1251" customFormat="1"/>
-    <row r="1252" customFormat="1"/>
-    <row r="1253" customFormat="1"/>
-    <row r="1254" customFormat="1"/>
-    <row r="1255" customFormat="1"/>
-    <row r="1256" customFormat="1"/>
-    <row r="1257" customFormat="1"/>
-    <row r="1258" customFormat="1"/>
-    <row r="1259" customFormat="1"/>
-    <row r="1260" customFormat="1"/>
-    <row r="1261" customFormat="1"/>
-    <row r="1262" customFormat="1"/>
-    <row r="1263" customFormat="1"/>
-    <row r="1264" customFormat="1"/>
-    <row r="1265" customFormat="1"/>
-    <row r="1266" customFormat="1"/>
-    <row r="1267" customFormat="1"/>
-    <row r="1268" customFormat="1"/>
-    <row r="1269" customFormat="1"/>
-    <row r="1270" customFormat="1"/>
-    <row r="1271" customFormat="1"/>
-    <row r="1272" customFormat="1"/>
-    <row r="1273" customFormat="1"/>
-    <row r="1274" customFormat="1"/>
-    <row r="1275" customFormat="1"/>
-    <row r="1276" customFormat="1"/>
-    <row r="1277" customFormat="1"/>
-    <row r="1278" customFormat="1"/>
-    <row r="1279" customFormat="1"/>
-    <row r="1280" customFormat="1"/>
-    <row r="1281" customFormat="1"/>
-    <row r="1282" customFormat="1"/>
-    <row r="1283" customFormat="1"/>
-    <row r="1284" customFormat="1"/>
-    <row r="1285" customFormat="1"/>
-    <row r="1286" customFormat="1"/>
-    <row r="1287" customFormat="1"/>
-    <row r="1288" customFormat="1"/>
-    <row r="1289" customFormat="1"/>
-    <row r="1290" customFormat="1"/>
-    <row r="1291" customFormat="1"/>
-    <row r="1292" customFormat="1"/>
-    <row r="1293" customFormat="1"/>
-    <row r="1294" customFormat="1"/>
-    <row r="1295" customFormat="1"/>
-    <row r="1296" customFormat="1"/>
-    <row r="1297" customFormat="1"/>
-    <row r="1298" customFormat="1"/>
-    <row r="1299" customFormat="1"/>
-    <row r="1300" customFormat="1"/>
-    <row r="1301" customFormat="1"/>
-    <row r="1302" customFormat="1"/>
-    <row r="1303" customFormat="1"/>
-    <row r="1304" customFormat="1"/>
-    <row r="1305" customFormat="1"/>
-    <row r="1306" customFormat="1"/>
-    <row r="1307" customFormat="1"/>
-    <row r="1308" customFormat="1"/>
-    <row r="1309" customFormat="1"/>
-    <row r="1310" customFormat="1"/>
-    <row r="1311" customFormat="1"/>
-    <row r="1312" customFormat="1"/>
-    <row r="1313" customFormat="1"/>
-    <row r="1314" customFormat="1"/>
-    <row r="1315" customFormat="1"/>
-    <row r="1316" customFormat="1"/>
-    <row r="1317" customFormat="1"/>
-    <row r="1318" customFormat="1"/>
-    <row r="1319" customFormat="1"/>
-    <row r="1320" customFormat="1"/>
-    <row r="1321" customFormat="1"/>
-    <row r="1322" customFormat="1"/>
-    <row r="1323" customFormat="1"/>
-    <row r="1324" customFormat="1"/>
-    <row r="1325" customFormat="1"/>
-    <row r="1326" customFormat="1"/>
-    <row r="1327" customFormat="1"/>
-    <row r="1328" customFormat="1"/>
-    <row r="1329" customFormat="1"/>
-    <row r="1330" customFormat="1"/>
-    <row r="1331" customFormat="1"/>
-    <row r="1332" customFormat="1"/>
-    <row r="1333" customFormat="1"/>
-    <row r="1334" customFormat="1"/>
-    <row r="1335" customFormat="1"/>
-    <row r="1336" customFormat="1"/>
-    <row r="1337" customFormat="1"/>
-    <row r="1338" customFormat="1"/>
-    <row r="1339" customFormat="1"/>
-    <row r="1340" customFormat="1"/>
-    <row r="1341" customFormat="1"/>
-    <row r="1342" customFormat="1"/>
-    <row r="1343" customFormat="1"/>
-    <row r="1344" customFormat="1"/>
-    <row r="1345" customFormat="1"/>
-    <row r="1346" customFormat="1"/>
-    <row r="1347" customFormat="1"/>
-    <row r="1348" customFormat="1"/>
-    <row r="1349" customFormat="1"/>
-    <row r="1350" customFormat="1"/>
-    <row r="1351" customFormat="1"/>
-    <row r="1352" customFormat="1"/>
-    <row r="1353" customFormat="1"/>
-    <row r="1354" customFormat="1"/>
-    <row r="1355" customFormat="1"/>
-    <row r="1356" customFormat="1"/>
-    <row r="1357" customFormat="1"/>
-    <row r="1358" customFormat="1"/>
-    <row r="1359" customFormat="1"/>
-    <row r="1360" customFormat="1"/>
-    <row r="1361" customFormat="1"/>
-    <row r="1362" customFormat="1"/>
-    <row r="1363" customFormat="1"/>
-    <row r="1364" customFormat="1"/>
-    <row r="1365" customFormat="1"/>
-    <row r="1366" customFormat="1"/>
-    <row r="1367" customFormat="1"/>
-    <row r="1368" customFormat="1"/>
-    <row r="1369" customFormat="1"/>
-    <row r="1370" customFormat="1"/>
-    <row r="1371" customFormat="1"/>
-    <row r="1372" customFormat="1"/>
-    <row r="1373" customFormat="1"/>
-    <row r="1374" customFormat="1"/>
-    <row r="1375" customFormat="1"/>
-    <row r="1376" customFormat="1"/>
-    <row r="1377" customFormat="1"/>
-    <row r="1378" customFormat="1"/>
-    <row r="1379" customFormat="1"/>
-    <row r="1380" customFormat="1"/>
-    <row r="1381" customFormat="1"/>
-    <row r="1382" customFormat="1"/>
-    <row r="1383" customFormat="1"/>
-    <row r="1384" customFormat="1"/>
-    <row r="1385" customFormat="1"/>
-    <row r="1386" customFormat="1"/>
-    <row r="1387" customFormat="1"/>
-    <row r="1388" customFormat="1"/>
-    <row r="1389" customFormat="1"/>
-    <row r="1390" customFormat="1"/>
-    <row r="1391" customFormat="1"/>
-    <row r="1392" customFormat="1"/>
-    <row r="1393" customFormat="1"/>
-    <row r="1394" customFormat="1"/>
-    <row r="1395" customFormat="1"/>
-    <row r="1396" customFormat="1"/>
-    <row r="1397" customFormat="1"/>
-    <row r="1398" customFormat="1"/>
-    <row r="1399" customFormat="1"/>
-    <row r="1400" customFormat="1"/>
-    <row r="1401" customFormat="1"/>
-    <row r="1402" customFormat="1"/>
-    <row r="1403" customFormat="1"/>
-    <row r="1404" customFormat="1"/>
-    <row r="1405" customFormat="1"/>
-    <row r="1406" customFormat="1"/>
-    <row r="1407" customFormat="1"/>
-    <row r="1408" customFormat="1"/>
-    <row r="1409" customFormat="1"/>
-    <row r="1410" customFormat="1"/>
-    <row r="1411" customFormat="1"/>
-    <row r="1412" customFormat="1"/>
-    <row r="1413" customFormat="1"/>
-    <row r="1414" customFormat="1"/>
-    <row r="1415" customFormat="1"/>
-    <row r="1416" customFormat="1"/>
-    <row r="1417" customFormat="1"/>
-    <row r="1418" customFormat="1"/>
-    <row r="1419" customFormat="1"/>
-    <row r="1420" customFormat="1"/>
-    <row r="1421" customFormat="1"/>
-    <row r="1422" customFormat="1"/>
-    <row r="1423" customFormat="1"/>
-    <row r="1424" customFormat="1"/>
-    <row r="1425" customFormat="1"/>
-    <row r="1426" customFormat="1"/>
-    <row r="1427" customFormat="1"/>
-    <row r="1428" customFormat="1"/>
-    <row r="1429" customFormat="1"/>
-    <row r="1430" customFormat="1"/>
-    <row r="1431" customFormat="1"/>
-    <row r="1432" customFormat="1"/>
-    <row r="1433" customFormat="1"/>
-    <row r="1434" customFormat="1"/>
-    <row r="1435" customFormat="1"/>
-    <row r="1436" customFormat="1"/>
-    <row r="1437" customFormat="1"/>
-    <row r="1438" customFormat="1"/>
-    <row r="1439" customFormat="1"/>
-    <row r="1440" customFormat="1"/>
-    <row r="1441" customFormat="1"/>
-    <row r="1442" customFormat="1"/>
-    <row r="1443" customFormat="1"/>
-    <row r="1444" customFormat="1"/>
-    <row r="1445" customFormat="1"/>
-    <row r="1446" customFormat="1"/>
-    <row r="1447" customFormat="1"/>
-    <row r="1448" customFormat="1"/>
-    <row r="1449" customFormat="1"/>
-    <row r="1450" customFormat="1"/>
-    <row r="1451" customFormat="1"/>
-    <row r="1452" customFormat="1"/>
-    <row r="1453" customFormat="1"/>
-    <row r="1454" customFormat="1"/>
-    <row r="1455" customFormat="1"/>
-    <row r="1456" customFormat="1"/>
-    <row r="1457" customFormat="1"/>
-    <row r="1458" customFormat="1"/>
-    <row r="1459" customFormat="1"/>
-    <row r="1460" customFormat="1"/>
-    <row r="1461" customFormat="1"/>
-    <row r="1462" customFormat="1"/>
-    <row r="1463" customFormat="1"/>
-    <row r="1464" customFormat="1"/>
-    <row r="1465" customFormat="1"/>
-    <row r="1466" customFormat="1"/>
-    <row r="1467" customFormat="1"/>
-    <row r="1468" customFormat="1"/>
-    <row r="1469" customFormat="1"/>
-    <row r="1470" customFormat="1"/>
-    <row r="1471" customFormat="1"/>
-    <row r="1472" customFormat="1"/>
-    <row r="1473" customFormat="1"/>
-    <row r="1474" customFormat="1"/>
-    <row r="1475" customFormat="1"/>
-    <row r="1476" customFormat="1"/>
-    <row r="1477" customFormat="1"/>
-    <row r="1478" customFormat="1"/>
-    <row r="1479" customFormat="1"/>
-    <row r="1480" customFormat="1"/>
-    <row r="1481" customFormat="1"/>
-    <row r="1482" customFormat="1"/>
-    <row r="1483" customFormat="1"/>
-    <row r="1484" customFormat="1"/>
-    <row r="1485" customFormat="1"/>
-    <row r="1486" customFormat="1"/>
-    <row r="1487" customFormat="1"/>
-    <row r="1488" customFormat="1"/>
-    <row r="1489" customFormat="1"/>
-    <row r="1490" customFormat="1"/>
-    <row r="1491" customFormat="1"/>
-    <row r="1492" customFormat="1"/>
-    <row r="1493" customFormat="1"/>
-    <row r="1494" customFormat="1"/>
-    <row r="1495" customFormat="1"/>
-    <row r="1496" customFormat="1"/>
-    <row r="1497" customFormat="1"/>
-    <row r="1498" customFormat="1"/>
-    <row r="1499" customFormat="1"/>
-    <row r="1500" customFormat="1"/>
-    <row r="1501" customFormat="1"/>
-    <row r="1502" customFormat="1"/>
-    <row r="1503" customFormat="1"/>
-    <row r="1504" customFormat="1"/>
-    <row r="1505" customFormat="1"/>
-    <row r="1506" customFormat="1"/>
-    <row r="1507" customFormat="1"/>
-    <row r="1508" customFormat="1"/>
   </sheetData>
   <autoFilter ref="A6:S7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
@@ -8668,12 +5795,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="23.45" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="9" t="s">
@@ -8684,12 +5811,12 @@
       <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="23.45" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="10" t="s">

--- a/third_party/Excel_Handle/AVL_Cmp_Same_List_Example.xlsx
+++ b/third_party/Excel_Handle/AVL_Cmp_Same_List_Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abb-my.sharepoint.com/personal/mackey-jinhuan_lao_cn_abb_com/Documents/00_WorkPlace/01_Design_Work/01_Prg/10_Py/PythonCode/A1_Flask/Flask_CONNECT_DB/third_party/Excel_Handle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{DAAC8FC7-9078-4B7B-AE10-9F02F9836504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C61A99C7-BA84-47C4-9416-09A4C13A1DBF}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{DAAC8FC7-9078-4B7B-AE10-9F02F9836504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF12A2C-0088-47BB-8154-64C9CD1361AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8940" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVL" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,77 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mackey-JinHuan Lao</author>
+  </authors>
+  <commentList>
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{05E60AD0-D87C-4045-96FE-3BFF03E30E31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Mackey-JinHuan Lao:for </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>New part test
+2TFU901483U1001</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mackey-JinHuan Lao</author>
+  </authors>
+  <commentList>
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{8F4DB393-14F8-409E-BD44-AA7BE82484B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mackey-JinHuan Lao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+for delete part test
+2TFU901320U1001</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="265">
   <si>
     <t xml:space="preserve">ABB </t>
   </si>
@@ -828,7 +897,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +978,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1426,14 +1508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2300,7 +2382,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>43</v>
       </c>
@@ -2311,30 +2393,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>44</v>
-      </c>
-      <c r="B50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+    <row r="50" spans="1:3"/>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>45</v>
       </c>
@@ -2345,7 +2405,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>46</v>
       </c>
@@ -2356,7 +2416,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>47</v>
       </c>
@@ -2367,7 +2427,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>48</v>
       </c>
@@ -2388,18 +2448,19 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD83B7A-67B6-4C15-B32B-ED94D88A7750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD83B7A-67B6-4C15-B32B-ED94D88A7750}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3729,29 +3790,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
-        <v>48</v>
-      </c>
-      <c r="B54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" t="s">
-        <v>83</v>
-      </c>
-    </row>
+    <row r="54" spans="1:8"/>
   </sheetData>
   <autoFilter ref="A6:S7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
@@ -3762,6 +3801,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/third_party/Excel_Handle/AVL_Cmp_Same_List_Example.xlsx
+++ b/third_party/Excel_Handle/AVL_Cmp_Same_List_Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abb-my.sharepoint.com/personal/mackey-jinhuan_lao_cn_abb_com/Documents/00_WorkPlace/01_Design_Work/01_Prg/10_Py/PythonCode/A1_Flask/Flask_CONNECT_DB/third_party/Excel_Handle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{DAAC8FC7-9078-4B7B-AE10-9F02F9836504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF12A2C-0088-47BB-8154-64C9CD1361AF}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{DAAC8FC7-9078-4B7B-AE10-9F02F9836504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B51F8DA5-3031-4156-B162-E6856B4B7420}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVL" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
             <charset val="1"/>
           </rPr>
           <t>New part test
-2TFU901483U1001</t>
+2TFU901329U1001</t>
         </r>
       </text>
     </comment>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="265">
   <si>
     <t xml:space="preserve">ABB </t>
   </si>
@@ -1514,8 +1514,8 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2393,7 +2393,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:3"/>
+    <row r="50" spans="1:3">
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="51" spans="1:3">
       <c r="A51">
         <v>45</v>
@@ -2459,8 +2463,8 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3790,7 +3794,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:8"/>
+    <row r="54" spans="1:8">
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A6:S7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">

--- a/third_party/Excel_Handle/AVL_Cmp_Same_List_Example.xlsx
+++ b/third_party/Excel_Handle/AVL_Cmp_Same_List_Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abb-my.sharepoint.com/personal/mackey-jinhuan_lao_cn_abb_com/Documents/00_WorkPlace/01_Design_Work/01_Prg/10_Py/PythonCode/A1_Flask/Flask_CONNECT_DB/third_party/Excel_Handle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{DAAC8FC7-9078-4B7B-AE10-9F02F9836504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B51F8DA5-3031-4156-B162-E6856B4B7420}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{DAAC8FC7-9078-4B7B-AE10-9F02F9836504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E86380A9-BFC2-4F14-B773-87A70E468739}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-4905" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVL" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="267">
   <si>
     <t xml:space="preserve">ABB </t>
   </si>
@@ -891,13 +891,19 @@
   </si>
   <si>
     <t>CC0805KRX7R7BB47*</t>
+  </si>
+  <si>
+    <t>2TFE001021D1802</t>
+  </si>
+  <si>
+    <t>2TFE001021D1803</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +997,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2463,7 +2476,7 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -3818,8 +3831,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:C494"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3848,11 +3861,12 @@
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>265</v>
+      </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="13"/>
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="2:3">
@@ -3860,7 +3874,9 @@
       <c r="C6" s="13"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>266</v>
+      </c>
       <c r="C7" s="13"/>
     </row>
     <row r="8" spans="2:3">
@@ -5812,6 +5828,7 @@
       <c r="C494" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0"/>
 </worksheet>
